--- a/Plantilla.xlsx
+++ b/Plantilla.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jandr\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jandr\Desktop\EasyProfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC390F6-D89D-46B2-91F5-8EFECB88D8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EABE33-57DD-4B75-B515-853E04A9BE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,34 +424,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -737,9 +737,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:S1074"/>
+  <dimension ref="B1:S1733"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="D10" sqref="D10:M12"/>
     </sheetView>
   </sheetViews>
@@ -768,10 +768,10 @@
     </row>
     <row r="3" spans="2:16" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
-      <c r="C3" s="47">
+      <c r="C3" s="44">
         <v>1</v>
       </c>
-      <c r="D3" s="48"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -860,16 +860,16 @@
     <row r="10" spans="2:16" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="17"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
       <c r="N10" s="9"/>
       <c r="O10" s="19"/>
       <c r="P10" s="9"/>
@@ -877,16 +877,16 @@
     <row r="11" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="17"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
       <c r="N11" s="9"/>
       <c r="O11" s="19"/>
       <c r="P11" s="9"/>
@@ -894,16 +894,16 @@
     <row r="12" spans="2:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
       <c r="N12" s="9"/>
       <c r="O12" s="19"/>
       <c r="P12" s="9"/>
@@ -1008,17 +1008,17 @@
     <row r="26" spans="2:16" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="17"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="50"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="53"/>
       <c r="P26" s="9"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
@@ -3493,6 +3493,7 @@
     <row r="346" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B346" s="4"/>
       <c r="C346" s="17"/>
+      <c r="D346" s="20"/>
       <c r="N346" s="9"/>
       <c r="P346" s="9"/>
     </row>
@@ -3576,1314 +3577,5428 @@
     <row r="358" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B358" s="4"/>
       <c r="C358" s="17"/>
-      <c r="D358" s="27"/>
-      <c r="E358" s="27"/>
-      <c r="F358" s="27"/>
-      <c r="G358" s="27"/>
-      <c r="H358" s="27"/>
-      <c r="I358" s="27"/>
-      <c r="J358" s="27"/>
-      <c r="K358" s="27"/>
-      <c r="L358" s="27"/>
-      <c r="M358" s="27"/>
+      <c r="D358" s="20"/>
       <c r="N358" s="9"/>
       <c r="P358" s="9"/>
     </row>
     <row r="359" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B359" s="4"/>
       <c r="C359" s="17"/>
-      <c r="D359" s="27"/>
-      <c r="E359" s="27"/>
-      <c r="F359" s="27"/>
-      <c r="G359" s="27"/>
-      <c r="H359" s="27"/>
-      <c r="I359" s="27"/>
-      <c r="J359" s="27"/>
-      <c r="K359" s="27"/>
-      <c r="L359" s="27"/>
-      <c r="M359" s="27"/>
+      <c r="D359" s="20"/>
       <c r="N359" s="9"/>
       <c r="P359" s="9"/>
     </row>
     <row r="360" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B360" s="4"/>
       <c r="C360" s="17"/>
-      <c r="D360" s="27"/>
+      <c r="D360" s="20"/>
       <c r="N360" s="9"/>
       <c r="P360" s="9"/>
     </row>
     <row r="361" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B361" s="4"/>
       <c r="C361" s="17"/>
+      <c r="D361" s="20"/>
       <c r="N361" s="9"/>
       <c r="P361" s="9"/>
     </row>
     <row r="362" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B362" s="34"/>
-      <c r="C362" s="21"/>
-      <c r="D362" s="21"/>
-      <c r="E362" s="21"/>
-      <c r="F362" s="21"/>
-      <c r="G362" s="21"/>
-      <c r="H362" s="21"/>
-      <c r="I362" s="21"/>
-      <c r="J362" s="21"/>
-      <c r="K362" s="21"/>
-      <c r="L362" s="21"/>
-      <c r="M362" s="21"/>
+      <c r="B362" s="4"/>
+      <c r="C362" s="17"/>
+      <c r="D362" s="20"/>
       <c r="N362" s="9"/>
-      <c r="O362" s="33"/>
       <c r="P362" s="9"/>
     </row>
     <row r="363" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B363" s="34"/>
-      <c r="C363" s="21"/>
-      <c r="D363" s="21"/>
-      <c r="E363" s="21"/>
-      <c r="F363" s="21"/>
-      <c r="G363" s="21"/>
-      <c r="H363" s="21"/>
-      <c r="I363" s="21"/>
-      <c r="J363" s="21"/>
-      <c r="K363" s="21"/>
-      <c r="L363" s="21"/>
-      <c r="M363" s="21"/>
+      <c r="B363" s="4"/>
+      <c r="C363" s="17"/>
+      <c r="D363" s="20"/>
       <c r="N363" s="9"/>
-      <c r="O363" s="4"/>
       <c r="P363" s="9"/>
     </row>
     <row r="364" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B364" s="35"/>
+      <c r="B364" s="4"/>
+      <c r="C364" s="17"/>
+      <c r="D364" s="20"/>
       <c r="N364" s="9"/>
-      <c r="O364" s="33"/>
-      <c r="P364" s="29"/>
+      <c r="P364" s="9"/>
     </row>
     <row r="365" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B365" s="35"/>
+      <c r="B365" s="4"/>
+      <c r="C365" s="17"/>
+      <c r="D365" s="20"/>
       <c r="N365" s="9"/>
-      <c r="O365" s="33"/>
-      <c r="P365" s="29"/>
+      <c r="P365" s="9"/>
     </row>
     <row r="366" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B366" s="35"/>
+      <c r="B366" s="4"/>
+      <c r="C366" s="17"/>
+      <c r="D366" s="20"/>
       <c r="N366" s="9"/>
-      <c r="O366" s="33"/>
-      <c r="P366" s="29"/>
+      <c r="P366" s="9"/>
     </row>
     <row r="367" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B367" s="35"/>
+      <c r="B367" s="4"/>
+      <c r="C367" s="17"/>
+      <c r="D367" s="20"/>
       <c r="N367" s="9"/>
-      <c r="O367" s="33"/>
-      <c r="P367" s="29"/>
+      <c r="P367" s="9"/>
     </row>
     <row r="368" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B368" s="35"/>
+      <c r="B368" s="4"/>
+      <c r="C368" s="17"/>
+      <c r="D368" s="20"/>
       <c r="N368" s="9"/>
-      <c r="O368" s="33"/>
-      <c r="P368" s="29"/>
+      <c r="P368" s="9"/>
     </row>
     <row r="369" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B369" s="35"/>
+      <c r="B369" s="4"/>
+      <c r="C369" s="17"/>
+      <c r="D369" s="20"/>
       <c r="N369" s="9"/>
-      <c r="O369" s="33"/>
-      <c r="P369" s="29"/>
+      <c r="P369" s="9"/>
     </row>
     <row r="370" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B370" s="35"/>
+      <c r="B370" s="4"/>
+      <c r="C370" s="17"/>
+      <c r="D370" s="20"/>
       <c r="N370" s="9"/>
-      <c r="O370" s="33"/>
-      <c r="P370" s="29"/>
+      <c r="P370" s="9"/>
     </row>
     <row r="371" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B371" s="35"/>
+      <c r="B371" s="4"/>
+      <c r="C371" s="17"/>
+      <c r="D371" s="20"/>
       <c r="N371" s="9"/>
-      <c r="O371" s="33"/>
-      <c r="P371" s="29"/>
+      <c r="P371" s="9"/>
     </row>
     <row r="372" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B372" s="35"/>
+      <c r="B372" s="4"/>
+      <c r="C372" s="17"/>
+      <c r="D372" s="20"/>
       <c r="N372" s="9"/>
-      <c r="O372" s="33"/>
-      <c r="P372" s="29"/>
+      <c r="P372" s="9"/>
     </row>
     <row r="373" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B373" s="35"/>
+      <c r="B373" s="4"/>
+      <c r="C373" s="17"/>
+      <c r="D373" s="20"/>
       <c r="N373" s="9"/>
-      <c r="O373" s="33"/>
-      <c r="P373" s="29"/>
+      <c r="P373" s="9"/>
     </row>
     <row r="374" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B374" s="35"/>
+      <c r="B374" s="4"/>
+      <c r="C374" s="17"/>
+      <c r="D374" s="20"/>
       <c r="N374" s="9"/>
-      <c r="O374" s="33"/>
-      <c r="P374" s="29"/>
+      <c r="P374" s="9"/>
     </row>
     <row r="375" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B375" s="35"/>
+      <c r="B375" s="4"/>
+      <c r="C375" s="17"/>
+      <c r="D375" s="20"/>
       <c r="N375" s="9"/>
-      <c r="O375" s="33"/>
-      <c r="P375" s="29"/>
+      <c r="P375" s="9"/>
     </row>
     <row r="376" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B376" s="35"/>
+      <c r="B376" s="4"/>
+      <c r="C376" s="17"/>
+      <c r="D376" s="20"/>
       <c r="N376" s="9"/>
-      <c r="O376" s="33"/>
-      <c r="P376" s="29"/>
+      <c r="P376" s="9"/>
     </row>
     <row r="377" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B377" s="35"/>
+      <c r="B377" s="4"/>
+      <c r="C377" s="17"/>
+      <c r="D377" s="20"/>
       <c r="N377" s="9"/>
-      <c r="O377" s="33"/>
-      <c r="P377" s="29"/>
+      <c r="P377" s="9"/>
     </row>
     <row r="378" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B378" s="35"/>
+      <c r="B378" s="4"/>
+      <c r="C378" s="17"/>
+      <c r="D378" s="20"/>
       <c r="N378" s="9"/>
-      <c r="O378" s="33"/>
-      <c r="P378" s="29"/>
+      <c r="P378" s="9"/>
     </row>
     <row r="379" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B379" s="35"/>
+      <c r="B379" s="4"/>
+      <c r="C379" s="17"/>
+      <c r="D379" s="20"/>
       <c r="N379" s="9"/>
-      <c r="O379" s="33"/>
-      <c r="P379" s="29"/>
+      <c r="P379" s="9"/>
     </row>
     <row r="380" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B380" s="35"/>
+      <c r="B380" s="4"/>
+      <c r="C380" s="17"/>
+      <c r="D380" s="20"/>
       <c r="N380" s="9"/>
-      <c r="O380" s="33"/>
-      <c r="P380" s="29"/>
+      <c r="P380" s="9"/>
     </row>
     <row r="381" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B381" s="35"/>
+      <c r="B381" s="4"/>
+      <c r="C381" s="17"/>
+      <c r="D381" s="20"/>
       <c r="N381" s="9"/>
-      <c r="O381" s="33"/>
-      <c r="P381" s="29"/>
+      <c r="P381" s="9"/>
     </row>
     <row r="382" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B382" s="35"/>
+      <c r="B382" s="4"/>
+      <c r="C382" s="17"/>
+      <c r="D382" s="20"/>
       <c r="N382" s="9"/>
-      <c r="O382" s="33"/>
-      <c r="P382" s="29"/>
+      <c r="P382" s="9"/>
     </row>
     <row r="383" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B383" s="35"/>
+      <c r="B383" s="4"/>
+      <c r="C383" s="17"/>
+      <c r="D383" s="20"/>
       <c r="N383" s="9"/>
-      <c r="O383" s="33"/>
-      <c r="P383" s="29"/>
+      <c r="P383" s="9"/>
     </row>
     <row r="384" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B384" s="35"/>
+      <c r="B384" s="4"/>
+      <c r="C384" s="17"/>
+      <c r="D384" s="20"/>
       <c r="N384" s="9"/>
-      <c r="O384" s="33"/>
-      <c r="P384" s="29"/>
+      <c r="P384" s="9"/>
     </row>
     <row r="385" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B385" s="35"/>
+      <c r="B385" s="4"/>
+      <c r="C385" s="17"/>
+      <c r="D385" s="20"/>
       <c r="N385" s="9"/>
-      <c r="O385" s="33"/>
-      <c r="P385" s="29"/>
+      <c r="P385" s="9"/>
     </row>
     <row r="386" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B386" s="35"/>
+      <c r="B386" s="4"/>
+      <c r="C386" s="17"/>
+      <c r="D386" s="20"/>
       <c r="N386" s="9"/>
-      <c r="O386" s="33"/>
-      <c r="P386" s="29"/>
+      <c r="P386" s="9"/>
     </row>
     <row r="387" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B387" s="35"/>
+      <c r="B387" s="4"/>
+      <c r="C387" s="17"/>
+      <c r="D387" s="20"/>
       <c r="N387" s="9"/>
-      <c r="O387" s="33"/>
-      <c r="P387" s="29"/>
+      <c r="P387" s="9"/>
     </row>
     <row r="388" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B388" s="35"/>
+      <c r="B388" s="4"/>
+      <c r="C388" s="17"/>
+      <c r="D388" s="20"/>
       <c r="N388" s="9"/>
-      <c r="O388" s="33"/>
-      <c r="P388" s="29"/>
+      <c r="P388" s="9"/>
     </row>
     <row r="389" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B389" s="35"/>
+      <c r="B389" s="4"/>
+      <c r="C389" s="17"/>
+      <c r="D389" s="20"/>
       <c r="N389" s="9"/>
-      <c r="O389" s="33"/>
-      <c r="P389" s="29"/>
+      <c r="P389" s="9"/>
     </row>
     <row r="390" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B390" s="35"/>
+      <c r="B390" s="4"/>
+      <c r="C390" s="17"/>
+      <c r="D390" s="20"/>
       <c r="N390" s="9"/>
-      <c r="O390" s="33"/>
-      <c r="P390" s="29"/>
+      <c r="P390" s="9"/>
     </row>
     <row r="391" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B391" s="35"/>
-      <c r="O391" s="33"/>
-      <c r="P391" s="29"/>
+      <c r="B391" s="4"/>
+      <c r="C391" s="17"/>
+      <c r="D391" s="20"/>
+      <c r="N391" s="9"/>
+      <c r="P391" s="9"/>
     </row>
     <row r="392" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B392" s="35"/>
-      <c r="O392" s="33"/>
-      <c r="P392" s="29"/>
+      <c r="B392" s="4"/>
+      <c r="C392" s="17"/>
+      <c r="D392" s="20"/>
+      <c r="N392" s="9"/>
+      <c r="P392" s="9"/>
     </row>
     <row r="393" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B393" s="35"/>
-      <c r="O393" s="33"/>
-      <c r="P393" s="29"/>
+      <c r="B393" s="4"/>
+      <c r="C393" s="17"/>
+      <c r="D393" s="20"/>
+      <c r="N393" s="9"/>
+      <c r="P393" s="9"/>
     </row>
     <row r="394" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B394" s="35"/>
-      <c r="O394" s="33"/>
-      <c r="P394" s="29"/>
+      <c r="B394" s="4"/>
+      <c r="C394" s="17"/>
+      <c r="D394" s="20"/>
+      <c r="N394" s="9"/>
+      <c r="P394" s="9"/>
     </row>
     <row r="395" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B395" s="35"/>
-      <c r="O395" s="33"/>
-      <c r="P395" s="29"/>
+      <c r="B395" s="4"/>
+      <c r="C395" s="17"/>
+      <c r="D395" s="20"/>
+      <c r="N395" s="9"/>
+      <c r="P395" s="9"/>
     </row>
     <row r="396" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B396" s="35"/>
-      <c r="O396" s="33"/>
-      <c r="P396" s="29"/>
+      <c r="B396" s="4"/>
+      <c r="C396" s="17"/>
+      <c r="D396" s="20"/>
+      <c r="N396" s="9"/>
+      <c r="P396" s="9"/>
     </row>
     <row r="397" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B397" s="35"/>
-      <c r="O397" s="33"/>
-      <c r="P397" s="29"/>
+      <c r="B397" s="4"/>
+      <c r="C397" s="17"/>
+      <c r="D397" s="20"/>
+      <c r="N397" s="9"/>
+      <c r="P397" s="9"/>
     </row>
     <row r="398" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B398" s="35"/>
-      <c r="O398" s="33"/>
-      <c r="P398" s="29"/>
+      <c r="B398" s="4"/>
+      <c r="C398" s="17"/>
+      <c r="D398" s="20"/>
+      <c r="N398" s="9"/>
+      <c r="P398" s="9"/>
     </row>
     <row r="399" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B399" s="35"/>
-      <c r="O399" s="33"/>
-      <c r="P399" s="29"/>
+      <c r="B399" s="4"/>
+      <c r="C399" s="17"/>
+      <c r="D399" s="20"/>
+      <c r="N399" s="9"/>
+      <c r="P399" s="9"/>
     </row>
     <row r="400" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B400" s="35"/>
-      <c r="O400" s="33"/>
-      <c r="P400" s="29"/>
+      <c r="B400" s="4"/>
+      <c r="C400" s="17"/>
+      <c r="D400" s="20"/>
+      <c r="N400" s="9"/>
+      <c r="P400" s="9"/>
     </row>
     <row r="401" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B401" s="35"/>
-      <c r="O401" s="33"/>
-      <c r="P401" s="29"/>
+      <c r="B401" s="4"/>
+      <c r="C401" s="17"/>
+      <c r="D401" s="20"/>
+      <c r="N401" s="9"/>
+      <c r="P401" s="9"/>
     </row>
     <row r="402" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B402" s="35"/>
-      <c r="O402" s="33"/>
-      <c r="P402" s="29"/>
+      <c r="B402" s="4"/>
+      <c r="C402" s="17"/>
+      <c r="D402" s="20"/>
+      <c r="N402" s="9"/>
+      <c r="P402" s="9"/>
     </row>
     <row r="403" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B403" s="35"/>
-      <c r="O403" s="33"/>
-      <c r="P403" s="29"/>
+      <c r="B403" s="4"/>
+      <c r="C403" s="17"/>
+      <c r="D403" s="20"/>
+      <c r="N403" s="9"/>
+      <c r="P403" s="9"/>
     </row>
     <row r="404" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B404" s="35"/>
-      <c r="O404" s="33"/>
-      <c r="P404" s="29"/>
+      <c r="B404" s="4"/>
+      <c r="C404" s="17"/>
+      <c r="D404" s="20"/>
+      <c r="N404" s="9"/>
+      <c r="P404" s="9"/>
     </row>
     <row r="405" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B405" s="35"/>
-      <c r="O405" s="33"/>
-      <c r="P405" s="29"/>
+      <c r="B405" s="4"/>
+      <c r="C405" s="17"/>
+      <c r="D405" s="20"/>
+      <c r="N405" s="9"/>
+      <c r="P405" s="9"/>
     </row>
     <row r="406" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B406" s="35"/>
-      <c r="O406" s="33"/>
-      <c r="P406" s="29"/>
+      <c r="B406" s="4"/>
+      <c r="C406" s="17"/>
+      <c r="D406" s="20"/>
+      <c r="N406" s="9"/>
+      <c r="P406" s="9"/>
     </row>
     <row r="407" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B407" s="35"/>
-      <c r="O407" s="33"/>
-      <c r="P407" s="29"/>
+      <c r="B407" s="4"/>
+      <c r="C407" s="17"/>
+      <c r="D407" s="20"/>
+      <c r="N407" s="9"/>
+      <c r="P407" s="9"/>
     </row>
     <row r="408" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B408" s="35"/>
-      <c r="O408" s="33"/>
-      <c r="P408" s="29"/>
+      <c r="B408" s="4"/>
+      <c r="C408" s="17"/>
+      <c r="D408" s="20"/>
+      <c r="N408" s="9"/>
+      <c r="P408" s="9"/>
     </row>
     <row r="409" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B409" s="35"/>
-      <c r="O409" s="33"/>
-      <c r="P409" s="29"/>
+      <c r="B409" s="4"/>
+      <c r="C409" s="17"/>
+      <c r="D409" s="20"/>
+      <c r="N409" s="9"/>
+      <c r="P409" s="9"/>
     </row>
     <row r="410" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B410" s="35"/>
-      <c r="O410" s="33"/>
-      <c r="P410" s="29"/>
+      <c r="B410" s="4"/>
+      <c r="C410" s="17"/>
+      <c r="D410" s="20"/>
+      <c r="N410" s="9"/>
+      <c r="P410" s="9"/>
     </row>
     <row r="411" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B411" s="35"/>
-      <c r="O411" s="33"/>
-      <c r="P411" s="29"/>
+      <c r="B411" s="4"/>
+      <c r="C411" s="17"/>
+      <c r="D411" s="20"/>
+      <c r="N411" s="9"/>
+      <c r="P411" s="9"/>
     </row>
     <row r="412" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B412" s="35"/>
-      <c r="O412" s="33"/>
-      <c r="P412" s="29"/>
+      <c r="B412" s="4"/>
+      <c r="C412" s="17"/>
+      <c r="D412" s="20"/>
+      <c r="N412" s="9"/>
+      <c r="P412" s="9"/>
     </row>
     <row r="413" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B413" s="35"/>
-      <c r="O413" s="33"/>
-      <c r="P413" s="29"/>
+      <c r="B413" s="4"/>
+      <c r="C413" s="17"/>
+      <c r="D413" s="20"/>
+      <c r="N413" s="9"/>
+      <c r="P413" s="9"/>
     </row>
     <row r="414" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B414" s="35"/>
-      <c r="O414" s="33"/>
-      <c r="P414" s="29"/>
+      <c r="B414" s="4"/>
+      <c r="C414" s="17"/>
+      <c r="D414" s="20"/>
+      <c r="N414" s="9"/>
+      <c r="P414" s="9"/>
     </row>
     <row r="415" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B415" s="35"/>
-      <c r="O415" s="33"/>
-      <c r="P415" s="29"/>
+      <c r="B415" s="4"/>
+      <c r="C415" s="17"/>
+      <c r="D415" s="20"/>
+      <c r="N415" s="9"/>
+      <c r="P415" s="9"/>
     </row>
     <row r="416" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B416" s="35"/>
-      <c r="O416" s="33"/>
-      <c r="P416" s="29"/>
+      <c r="B416" s="4"/>
+      <c r="C416" s="17"/>
+      <c r="D416" s="20"/>
+      <c r="N416" s="9"/>
+      <c r="P416" s="9"/>
     </row>
     <row r="417" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B417" s="35"/>
-      <c r="O417" s="33"/>
-      <c r="P417" s="29"/>
+      <c r="B417" s="4"/>
+      <c r="C417" s="17"/>
+      <c r="D417" s="20"/>
+      <c r="N417" s="9"/>
+      <c r="P417" s="9"/>
     </row>
     <row r="418" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B418" s="35"/>
-      <c r="O418" s="33"/>
-      <c r="P418" s="29"/>
+      <c r="B418" s="4"/>
+      <c r="C418" s="17"/>
+      <c r="D418" s="20"/>
+      <c r="N418" s="9"/>
+      <c r="P418" s="9"/>
     </row>
     <row r="419" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B419" s="35"/>
-      <c r="O419" s="33"/>
-      <c r="P419" s="29"/>
+      <c r="B419" s="4"/>
+      <c r="C419" s="17"/>
+      <c r="D419" s="20"/>
+      <c r="N419" s="9"/>
+      <c r="P419" s="9"/>
     </row>
     <row r="420" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B420" s="35"/>
-      <c r="O420" s="33"/>
-      <c r="P420" s="29"/>
+      <c r="B420" s="4"/>
+      <c r="C420" s="17"/>
+      <c r="D420" s="20"/>
+      <c r="N420" s="9"/>
+      <c r="P420" s="9"/>
     </row>
     <row r="421" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B421" s="35"/>
-      <c r="O421" s="33"/>
-      <c r="P421" s="29"/>
+      <c r="B421" s="4"/>
+      <c r="C421" s="17"/>
+      <c r="D421" s="20"/>
+      <c r="N421" s="9"/>
+      <c r="P421" s="9"/>
     </row>
     <row r="422" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B422" s="35"/>
-      <c r="O422" s="33"/>
-      <c r="P422" s="29"/>
+      <c r="B422" s="4"/>
+      <c r="C422" s="17"/>
+      <c r="D422" s="20"/>
+      <c r="N422" s="9"/>
+      <c r="P422" s="9"/>
     </row>
     <row r="423" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B423" s="35"/>
-      <c r="O423" s="33"/>
-      <c r="P423" s="29"/>
+      <c r="B423" s="4"/>
+      <c r="C423" s="17"/>
+      <c r="D423" s="20"/>
+      <c r="N423" s="9"/>
+      <c r="P423" s="9"/>
     </row>
     <row r="424" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B424" s="35"/>
-      <c r="O424" s="33"/>
-      <c r="P424" s="29"/>
+      <c r="B424" s="4"/>
+      <c r="C424" s="17"/>
+      <c r="D424" s="20"/>
+      <c r="N424" s="9"/>
+      <c r="P424" s="9"/>
     </row>
     <row r="425" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B425" s="35"/>
-      <c r="O425" s="33"/>
-      <c r="P425" s="29"/>
+      <c r="B425" s="4"/>
+      <c r="C425" s="17"/>
+      <c r="D425" s="20"/>
+      <c r="N425" s="9"/>
+      <c r="P425" s="9"/>
     </row>
     <row r="426" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B426" s="35"/>
-      <c r="O426" s="33"/>
-      <c r="P426" s="29"/>
+      <c r="B426" s="4"/>
+      <c r="C426" s="17"/>
+      <c r="D426" s="20"/>
+      <c r="N426" s="9"/>
+      <c r="P426" s="9"/>
     </row>
     <row r="427" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B427" s="35"/>
-      <c r="O427" s="33"/>
-      <c r="P427" s="29"/>
+      <c r="B427" s="4"/>
+      <c r="C427" s="17"/>
+      <c r="D427" s="20"/>
+      <c r="N427" s="9"/>
+      <c r="P427" s="9"/>
     </row>
     <row r="428" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B428" s="35"/>
-      <c r="O428" s="33"/>
-      <c r="P428" s="29"/>
+      <c r="B428" s="4"/>
+      <c r="C428" s="17"/>
+      <c r="D428" s="20"/>
+      <c r="N428" s="9"/>
+      <c r="P428" s="9"/>
     </row>
     <row r="429" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B429" s="35"/>
-      <c r="O429" s="33"/>
-      <c r="P429" s="29"/>
+      <c r="B429" s="4"/>
+      <c r="C429" s="17"/>
+      <c r="D429" s="20"/>
+      <c r="N429" s="9"/>
+      <c r="P429" s="9"/>
     </row>
     <row r="430" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B430" s="35"/>
-      <c r="O430" s="33"/>
-      <c r="P430" s="29"/>
+      <c r="B430" s="4"/>
+      <c r="C430" s="17"/>
+      <c r="D430" s="20"/>
+      <c r="N430" s="9"/>
+      <c r="P430" s="9"/>
     </row>
     <row r="431" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B431" s="35"/>
-      <c r="O431" s="33"/>
-      <c r="P431" s="29"/>
+      <c r="B431" s="4"/>
+      <c r="C431" s="17"/>
+      <c r="D431" s="20"/>
+      <c r="N431" s="9"/>
+      <c r="P431" s="9"/>
     </row>
     <row r="432" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B432" s="35"/>
-      <c r="O432" s="33"/>
-      <c r="P432" s="29"/>
+      <c r="B432" s="4"/>
+      <c r="C432" s="17"/>
+      <c r="D432" s="20"/>
+      <c r="N432" s="9"/>
+      <c r="P432" s="9"/>
     </row>
     <row r="433" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B433" s="35"/>
-      <c r="O433" s="33"/>
-      <c r="P433" s="29"/>
+      <c r="B433" s="4"/>
+      <c r="C433" s="17"/>
+      <c r="D433" s="20"/>
+      <c r="N433" s="9"/>
+      <c r="P433" s="9"/>
     </row>
     <row r="434" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B434" s="35"/>
-      <c r="O434" s="33"/>
-      <c r="P434" s="29"/>
+      <c r="B434" s="4"/>
+      <c r="C434" s="17"/>
+      <c r="D434" s="20"/>
+      <c r="N434" s="9"/>
+      <c r="P434" s="9"/>
     </row>
     <row r="435" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B435" s="35"/>
-      <c r="O435" s="33"/>
-      <c r="P435" s="29"/>
+      <c r="B435" s="4"/>
+      <c r="C435" s="17"/>
+      <c r="D435" s="20"/>
+      <c r="N435" s="9"/>
+      <c r="P435" s="9"/>
     </row>
     <row r="436" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B436" s="35"/>
-      <c r="O436" s="33"/>
-      <c r="P436" s="29"/>
+      <c r="B436" s="4"/>
+      <c r="C436" s="17"/>
+      <c r="D436" s="20"/>
+      <c r="N436" s="9"/>
+      <c r="P436" s="9"/>
     </row>
     <row r="437" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B437" s="35"/>
-      <c r="O437" s="33"/>
-      <c r="P437" s="29"/>
+      <c r="B437" s="4"/>
+      <c r="C437" s="17"/>
+      <c r="D437" s="20"/>
+      <c r="N437" s="9"/>
+      <c r="P437" s="9"/>
     </row>
     <row r="438" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B438" s="35"/>
-      <c r="O438" s="33"/>
-      <c r="P438" s="29"/>
+      <c r="B438" s="4"/>
+      <c r="C438" s="17"/>
+      <c r="D438" s="20"/>
+      <c r="N438" s="9"/>
+      <c r="P438" s="9"/>
     </row>
     <row r="439" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B439" s="35"/>
-      <c r="O439" s="33"/>
-      <c r="P439" s="29"/>
+      <c r="B439" s="4"/>
+      <c r="C439" s="17"/>
+      <c r="D439" s="20"/>
+      <c r="N439" s="9"/>
+      <c r="P439" s="9"/>
     </row>
     <row r="440" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B440" s="35"/>
-      <c r="O440" s="33"/>
-      <c r="P440" s="29"/>
+      <c r="B440" s="4"/>
+      <c r="C440" s="17"/>
+      <c r="D440" s="20"/>
+      <c r="N440" s="9"/>
+      <c r="P440" s="9"/>
     </row>
     <row r="441" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B441" s="35"/>
-      <c r="O441" s="33"/>
-      <c r="P441" s="29"/>
+      <c r="B441" s="4"/>
+      <c r="C441" s="17"/>
+      <c r="D441" s="20"/>
+      <c r="N441" s="9"/>
+      <c r="P441" s="9"/>
     </row>
     <row r="442" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B442" s="35"/>
-      <c r="O442" s="33"/>
-      <c r="P442" s="29"/>
+      <c r="B442" s="4"/>
+      <c r="C442" s="17"/>
+      <c r="D442" s="20"/>
+      <c r="N442" s="9"/>
+      <c r="P442" s="9"/>
     </row>
     <row r="443" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B443" s="35"/>
-      <c r="O443" s="33"/>
-      <c r="P443" s="29"/>
+      <c r="B443" s="4"/>
+      <c r="C443" s="17"/>
+      <c r="D443" s="20"/>
+      <c r="N443" s="9"/>
+      <c r="P443" s="9"/>
     </row>
     <row r="444" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B444" s="35"/>
-      <c r="O444" s="33"/>
-      <c r="P444" s="29"/>
+      <c r="B444" s="4"/>
+      <c r="C444" s="17"/>
+      <c r="D444" s="20"/>
+      <c r="N444" s="9"/>
+      <c r="P444" s="9"/>
     </row>
     <row r="445" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B445" s="35"/>
-      <c r="O445" s="33"/>
-      <c r="P445" s="29"/>
+      <c r="B445" s="4"/>
+      <c r="C445" s="17"/>
+      <c r="D445" s="20"/>
+      <c r="N445" s="9"/>
+      <c r="P445" s="9"/>
     </row>
     <row r="446" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B446" s="35"/>
-      <c r="O446" s="33"/>
-      <c r="P446" s="29"/>
+      <c r="B446" s="4"/>
+      <c r="C446" s="17"/>
+      <c r="D446" s="20"/>
+      <c r="N446" s="9"/>
+      <c r="P446" s="9"/>
     </row>
     <row r="447" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B447" s="35"/>
-      <c r="O447" s="33"/>
-      <c r="P447" s="29"/>
+      <c r="B447" s="4"/>
+      <c r="C447" s="17"/>
+      <c r="D447" s="20"/>
+      <c r="N447" s="9"/>
+      <c r="P447" s="9"/>
     </row>
     <row r="448" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B448" s="35"/>
-      <c r="O448" s="33"/>
-      <c r="P448" s="29"/>
+      <c r="B448" s="4"/>
+      <c r="C448" s="17"/>
+      <c r="D448" s="20"/>
+      <c r="N448" s="9"/>
+      <c r="P448" s="9"/>
     </row>
     <row r="449" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B449" s="35"/>
-      <c r="O449" s="33"/>
-      <c r="P449" s="29"/>
+      <c r="B449" s="4"/>
+      <c r="C449" s="17"/>
+      <c r="D449" s="20"/>
+      <c r="N449" s="9"/>
+      <c r="P449" s="9"/>
     </row>
     <row r="450" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B450" s="35"/>
-      <c r="O450" s="33"/>
-      <c r="P450" s="29"/>
+      <c r="B450" s="4"/>
+      <c r="C450" s="17"/>
+      <c r="D450" s="20"/>
+      <c r="N450" s="9"/>
+      <c r="P450" s="9"/>
     </row>
     <row r="451" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B451" s="35"/>
-      <c r="O451" s="33"/>
-      <c r="P451" s="29"/>
+      <c r="B451" s="4"/>
+      <c r="C451" s="17"/>
+      <c r="D451" s="20"/>
+      <c r="N451" s="9"/>
+      <c r="P451" s="9"/>
     </row>
     <row r="452" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B452" s="35"/>
-      <c r="O452" s="33"/>
-      <c r="P452" s="29"/>
+      <c r="B452" s="4"/>
+      <c r="C452" s="17"/>
+      <c r="D452" s="20"/>
+      <c r="N452" s="9"/>
+      <c r="P452" s="9"/>
     </row>
     <row r="453" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B453" s="35"/>
-      <c r="O453" s="33"/>
-      <c r="P453" s="29"/>
+      <c r="B453" s="4"/>
+      <c r="C453" s="17"/>
+      <c r="D453" s="20"/>
+      <c r="N453" s="9"/>
+      <c r="P453" s="9"/>
     </row>
     <row r="454" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B454" s="35"/>
-      <c r="O454" s="33"/>
-      <c r="P454" s="29"/>
+      <c r="B454" s="4"/>
+      <c r="C454" s="17"/>
+      <c r="D454" s="20"/>
+      <c r="N454" s="9"/>
+      <c r="P454" s="9"/>
     </row>
     <row r="455" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B455" s="35"/>
-      <c r="O455" s="33"/>
-      <c r="P455" s="29"/>
+      <c r="B455" s="4"/>
+      <c r="C455" s="17"/>
+      <c r="D455" s="20"/>
+      <c r="N455" s="9"/>
+      <c r="P455" s="9"/>
     </row>
     <row r="456" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B456" s="35"/>
-      <c r="O456" s="33"/>
-      <c r="P456" s="29"/>
+      <c r="B456" s="4"/>
+      <c r="C456" s="17"/>
+      <c r="D456" s="20"/>
+      <c r="N456" s="9"/>
+      <c r="P456" s="9"/>
     </row>
     <row r="457" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B457" s="35"/>
-      <c r="O457" s="33"/>
-      <c r="P457" s="29"/>
+      <c r="B457" s="4"/>
+      <c r="C457" s="17"/>
+      <c r="D457" s="20"/>
+      <c r="N457" s="9"/>
+      <c r="P457" s="9"/>
     </row>
     <row r="458" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B458" s="35"/>
-      <c r="O458" s="33"/>
-      <c r="P458" s="29"/>
+      <c r="B458" s="4"/>
+      <c r="C458" s="17"/>
+      <c r="D458" s="20"/>
+      <c r="N458" s="9"/>
+      <c r="P458" s="9"/>
     </row>
     <row r="459" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B459" s="35"/>
-      <c r="O459" s="33"/>
-      <c r="P459" s="29"/>
+      <c r="B459" s="4"/>
+      <c r="C459" s="17"/>
+      <c r="D459" s="20"/>
+      <c r="N459" s="9"/>
+      <c r="P459" s="9"/>
     </row>
     <row r="460" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B460" s="35"/>
-      <c r="O460" s="33"/>
-      <c r="P460" s="29"/>
+      <c r="B460" s="4"/>
+      <c r="C460" s="17"/>
+      <c r="D460" s="20"/>
+      <c r="N460" s="9"/>
+      <c r="P460" s="9"/>
     </row>
     <row r="461" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B461" s="35"/>
-      <c r="O461" s="33"/>
-      <c r="P461" s="29"/>
+      <c r="B461" s="4"/>
+      <c r="C461" s="17"/>
+      <c r="D461" s="20"/>
+      <c r="N461" s="9"/>
+      <c r="P461" s="9"/>
     </row>
     <row r="462" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B462" s="35"/>
-      <c r="O462" s="33"/>
-      <c r="P462" s="29"/>
+      <c r="B462" s="4"/>
+      <c r="C462" s="17"/>
+      <c r="D462" s="20"/>
+      <c r="N462" s="9"/>
+      <c r="P462" s="9"/>
     </row>
     <row r="463" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B463" s="35"/>
-      <c r="O463" s="33"/>
-      <c r="P463" s="29"/>
+      <c r="B463" s="4"/>
+      <c r="C463" s="17"/>
+      <c r="D463" s="20"/>
+      <c r="N463" s="9"/>
+      <c r="P463" s="9"/>
     </row>
     <row r="464" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B464" s="35"/>
-      <c r="O464" s="33"/>
-      <c r="P464" s="29"/>
+      <c r="B464" s="4"/>
+      <c r="C464" s="17"/>
+      <c r="D464" s="20"/>
+      <c r="N464" s="9"/>
+      <c r="P464" s="9"/>
     </row>
     <row r="465" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B465" s="35"/>
-      <c r="O465" s="33"/>
-      <c r="P465" s="29"/>
+      <c r="B465" s="4"/>
+      <c r="C465" s="17"/>
+      <c r="D465" s="20"/>
+      <c r="N465" s="9"/>
+      <c r="P465" s="9"/>
     </row>
     <row r="466" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B466" s="35"/>
-      <c r="O466" s="33"/>
-      <c r="P466" s="29"/>
+      <c r="B466" s="4"/>
+      <c r="C466" s="17"/>
+      <c r="D466" s="20"/>
+      <c r="N466" s="9"/>
+      <c r="P466" s="9"/>
     </row>
     <row r="467" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B467" s="35"/>
-      <c r="O467" s="33"/>
-      <c r="P467" s="29"/>
+      <c r="B467" s="4"/>
+      <c r="C467" s="17"/>
+      <c r="D467" s="20"/>
+      <c r="N467" s="9"/>
+      <c r="P467" s="9"/>
     </row>
     <row r="468" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B468" s="35"/>
-      <c r="O468" s="33"/>
-      <c r="P468" s="29"/>
+      <c r="B468" s="4"/>
+      <c r="C468" s="17"/>
+      <c r="D468" s="20"/>
+      <c r="N468" s="9"/>
+      <c r="P468" s="9"/>
     </row>
     <row r="469" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B469" s="35"/>
-      <c r="O469" s="33"/>
-      <c r="P469" s="29"/>
+      <c r="B469" s="4"/>
+      <c r="C469" s="17"/>
+      <c r="D469" s="20"/>
+      <c r="N469" s="9"/>
+      <c r="P469" s="9"/>
     </row>
     <row r="470" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B470" s="35"/>
-      <c r="O470" s="33"/>
-      <c r="P470" s="29"/>
+      <c r="B470" s="4"/>
+      <c r="C470" s="17"/>
+      <c r="D470" s="20"/>
+      <c r="N470" s="9"/>
+      <c r="P470" s="9"/>
     </row>
     <row r="471" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B471" s="35"/>
-      <c r="O471" s="33"/>
-      <c r="P471" s="29"/>
+      <c r="B471" s="4"/>
+      <c r="C471" s="17"/>
+      <c r="D471" s="20"/>
+      <c r="N471" s="9"/>
+      <c r="P471" s="9"/>
     </row>
     <row r="472" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B472" s="35"/>
-      <c r="O472" s="33"/>
-      <c r="P472" s="29"/>
+      <c r="B472" s="4"/>
+      <c r="C472" s="17"/>
+      <c r="D472" s="20"/>
+      <c r="N472" s="9"/>
+      <c r="P472" s="9"/>
     </row>
     <row r="473" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B473" s="35"/>
-      <c r="O473" s="33"/>
-      <c r="P473" s="29"/>
+      <c r="B473" s="4"/>
+      <c r="C473" s="17"/>
+      <c r="D473" s="20"/>
+      <c r="N473" s="9"/>
+      <c r="P473" s="9"/>
     </row>
     <row r="474" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B474" s="35"/>
-      <c r="O474" s="33"/>
-      <c r="P474" s="29"/>
+      <c r="B474" s="4"/>
+      <c r="C474" s="17"/>
+      <c r="D474" s="20"/>
+      <c r="N474" s="9"/>
+      <c r="P474" s="9"/>
     </row>
     <row r="475" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B475" s="35"/>
-      <c r="O475" s="33"/>
-      <c r="P475" s="29"/>
+      <c r="B475" s="4"/>
+      <c r="C475" s="17"/>
+      <c r="D475" s="20"/>
+      <c r="N475" s="9"/>
+      <c r="P475" s="9"/>
     </row>
     <row r="476" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B476" s="35"/>
-      <c r="O476" s="33"/>
-      <c r="P476" s="29"/>
+      <c r="B476" s="4"/>
+      <c r="C476" s="17"/>
+      <c r="D476" s="20"/>
+      <c r="N476" s="9"/>
+      <c r="P476" s="9"/>
     </row>
     <row r="477" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B477" s="35"/>
-      <c r="O477" s="33"/>
-      <c r="P477" s="29"/>
+      <c r="B477" s="4"/>
+      <c r="C477" s="17"/>
+      <c r="D477" s="20"/>
+      <c r="N477" s="9"/>
+      <c r="P477" s="9"/>
     </row>
     <row r="478" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B478" s="35"/>
-      <c r="O478" s="33"/>
-      <c r="P478" s="29"/>
+      <c r="B478" s="4"/>
+      <c r="C478" s="17"/>
+      <c r="D478" s="20"/>
+      <c r="N478" s="9"/>
+      <c r="P478" s="9"/>
     </row>
     <row r="479" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B479" s="35"/>
-      <c r="O479" s="33"/>
-      <c r="P479" s="29"/>
+      <c r="B479" s="4"/>
+      <c r="C479" s="17"/>
+      <c r="D479" s="20"/>
+      <c r="N479" s="9"/>
+      <c r="P479" s="9"/>
     </row>
     <row r="480" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B480" s="35"/>
-      <c r="O480" s="33"/>
-      <c r="P480" s="29"/>
+      <c r="B480" s="4"/>
+      <c r="C480" s="17"/>
+      <c r="D480" s="20"/>
+      <c r="N480" s="9"/>
+      <c r="P480" s="9"/>
     </row>
     <row r="481" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B481" s="35"/>
-      <c r="O481" s="33"/>
-      <c r="P481" s="29"/>
+      <c r="B481" s="4"/>
+      <c r="C481" s="17"/>
+      <c r="D481" s="20"/>
+      <c r="N481" s="9"/>
+      <c r="P481" s="9"/>
     </row>
     <row r="482" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B482" s="35"/>
-      <c r="O482" s="33"/>
-      <c r="P482" s="29"/>
+      <c r="B482" s="4"/>
+      <c r="C482" s="17"/>
+      <c r="D482" s="20"/>
+      <c r="N482" s="9"/>
+      <c r="P482" s="9"/>
     </row>
     <row r="483" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B483" s="35"/>
-      <c r="O483" s="33"/>
-      <c r="P483" s="29"/>
+      <c r="B483" s="4"/>
+      <c r="C483" s="17"/>
+      <c r="D483" s="20"/>
+      <c r="N483" s="9"/>
+      <c r="P483" s="9"/>
     </row>
     <row r="484" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B484" s="35"/>
-      <c r="O484" s="33"/>
-      <c r="P484" s="29"/>
+      <c r="B484" s="4"/>
+      <c r="C484" s="17"/>
+      <c r="D484" s="20"/>
+      <c r="N484" s="9"/>
+      <c r="P484" s="9"/>
     </row>
     <row r="485" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B485" s="35"/>
-      <c r="O485" s="33"/>
-      <c r="P485" s="29"/>
+      <c r="B485" s="4"/>
+      <c r="C485" s="17"/>
+      <c r="D485" s="20"/>
+      <c r="N485" s="9"/>
+      <c r="P485" s="9"/>
     </row>
     <row r="486" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B486" s="35"/>
-      <c r="O486" s="33"/>
-      <c r="P486" s="29"/>
+      <c r="B486" s="4"/>
+      <c r="C486" s="17"/>
+      <c r="D486" s="20"/>
+      <c r="N486" s="9"/>
+      <c r="P486" s="9"/>
     </row>
     <row r="487" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B487" s="35"/>
-      <c r="O487" s="33"/>
-      <c r="P487" s="29"/>
+      <c r="B487" s="4"/>
+      <c r="C487" s="17"/>
+      <c r="D487" s="20"/>
+      <c r="N487" s="9"/>
+      <c r="P487" s="9"/>
     </row>
     <row r="488" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B488" s="35"/>
-      <c r="O488" s="33"/>
-      <c r="P488" s="29"/>
+      <c r="B488" s="4"/>
+      <c r="C488" s="17"/>
+      <c r="D488" s="20"/>
+      <c r="N488" s="9"/>
+      <c r="P488" s="9"/>
     </row>
     <row r="489" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B489" s="35"/>
-      <c r="O489" s="33"/>
-      <c r="P489" s="29"/>
+      <c r="B489" s="4"/>
+      <c r="C489" s="17"/>
+      <c r="D489" s="20"/>
+      <c r="N489" s="9"/>
+      <c r="P489" s="9"/>
     </row>
     <row r="490" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B490" s="35"/>
-      <c r="O490" s="33"/>
-      <c r="P490" s="29"/>
+      <c r="B490" s="4"/>
+      <c r="C490" s="17"/>
+      <c r="D490" s="20"/>
+      <c r="N490" s="9"/>
+      <c r="P490" s="9"/>
     </row>
     <row r="491" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B491" s="35"/>
-      <c r="O491" s="33"/>
-      <c r="P491" s="29"/>
+      <c r="B491" s="4"/>
+      <c r="C491" s="17"/>
+      <c r="D491" s="20"/>
+      <c r="N491" s="9"/>
+      <c r="P491" s="9"/>
     </row>
     <row r="492" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B492" s="35"/>
-      <c r="O492" s="33"/>
-      <c r="P492" s="29"/>
+      <c r="B492" s="4"/>
+      <c r="C492" s="17"/>
+      <c r="D492" s="20"/>
+      <c r="N492" s="9"/>
+      <c r="P492" s="9"/>
     </row>
     <row r="493" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B493" s="35"/>
-      <c r="O493" s="33"/>
-      <c r="P493" s="29"/>
+      <c r="B493" s="4"/>
+      <c r="C493" s="17"/>
+      <c r="D493" s="20"/>
+      <c r="N493" s="9"/>
+      <c r="P493" s="9"/>
     </row>
     <row r="494" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B494" s="35"/>
-      <c r="O494" s="33"/>
-      <c r="P494" s="29"/>
+      <c r="B494" s="4"/>
+      <c r="C494" s="17"/>
+      <c r="D494" s="20"/>
+      <c r="N494" s="9"/>
+      <c r="P494" s="9"/>
     </row>
     <row r="495" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B495" s="35"/>
-      <c r="O495" s="33"/>
-      <c r="P495" s="29"/>
+      <c r="B495" s="4"/>
+      <c r="C495" s="17"/>
+      <c r="D495" s="20"/>
+      <c r="N495" s="9"/>
+      <c r="P495" s="9"/>
     </row>
     <row r="496" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B496" s="35"/>
-      <c r="O496" s="33"/>
-      <c r="P496" s="29"/>
+      <c r="B496" s="4"/>
+      <c r="C496" s="17"/>
+      <c r="D496" s="20"/>
+      <c r="N496" s="9"/>
+      <c r="P496" s="9"/>
     </row>
     <row r="497" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B497" s="35"/>
-      <c r="O497" s="33"/>
-      <c r="P497" s="29"/>
+      <c r="B497" s="4"/>
+      <c r="C497" s="17"/>
+      <c r="D497" s="20"/>
+      <c r="N497" s="9"/>
+      <c r="P497" s="9"/>
     </row>
     <row r="498" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B498" s="35"/>
-      <c r="O498" s="33"/>
-      <c r="P498" s="29"/>
+      <c r="B498" s="4"/>
+      <c r="C498" s="17"/>
+      <c r="D498" s="20"/>
+      <c r="N498" s="9"/>
+      <c r="P498" s="9"/>
     </row>
     <row r="499" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B499" s="35"/>
-      <c r="O499" s="33"/>
-      <c r="P499" s="29"/>
+      <c r="B499" s="4"/>
+      <c r="C499" s="17"/>
+      <c r="D499" s="20"/>
+      <c r="N499" s="9"/>
+      <c r="P499" s="9"/>
     </row>
     <row r="500" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B500" s="35"/>
-      <c r="O500" s="33"/>
-      <c r="P500" s="29"/>
+      <c r="B500" s="4"/>
+      <c r="C500" s="17"/>
+      <c r="D500" s="20"/>
+      <c r="N500" s="9"/>
+      <c r="P500" s="9"/>
     </row>
     <row r="501" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B501" s="35"/>
-      <c r="O501" s="33"/>
-      <c r="P501" s="29"/>
+      <c r="B501" s="4"/>
+      <c r="C501" s="17"/>
+      <c r="D501" s="20"/>
+      <c r="N501" s="9"/>
+      <c r="P501" s="9"/>
     </row>
     <row r="502" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B502" s="35"/>
-      <c r="O502" s="33"/>
-      <c r="P502" s="29"/>
+      <c r="B502" s="4"/>
+      <c r="C502" s="17"/>
+      <c r="D502" s="20"/>
+      <c r="N502" s="9"/>
+      <c r="P502" s="9"/>
     </row>
     <row r="503" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B503" s="35"/>
-      <c r="O503" s="33"/>
-      <c r="P503" s="29"/>
+      <c r="B503" s="4"/>
+      <c r="C503" s="17"/>
+      <c r="D503" s="20"/>
+      <c r="N503" s="9"/>
+      <c r="P503" s="9"/>
     </row>
     <row r="504" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B504" s="35"/>
-      <c r="O504" s="33"/>
-      <c r="P504" s="29"/>
+      <c r="B504" s="4"/>
+      <c r="C504" s="17"/>
+      <c r="D504" s="20"/>
+      <c r="N504" s="9"/>
+      <c r="P504" s="9"/>
     </row>
     <row r="505" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B505" s="35"/>
-      <c r="O505" s="33"/>
-      <c r="P505" s="29"/>
+      <c r="B505" s="4"/>
+      <c r="C505" s="17"/>
+      <c r="D505" s="20"/>
+      <c r="N505" s="9"/>
+      <c r="P505" s="9"/>
     </row>
     <row r="506" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B506" s="35"/>
-      <c r="O506" s="33"/>
-      <c r="P506" s="29"/>
+      <c r="B506" s="4"/>
+      <c r="C506" s="17"/>
+      <c r="D506" s="20"/>
+      <c r="N506" s="9"/>
+      <c r="P506" s="9"/>
     </row>
     <row r="507" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B507" s="35"/>
-      <c r="O507" s="33"/>
-      <c r="P507" s="29"/>
+      <c r="B507" s="4"/>
+      <c r="C507" s="17"/>
+      <c r="D507" s="20"/>
+      <c r="N507" s="9"/>
+      <c r="P507" s="9"/>
     </row>
     <row r="508" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B508" s="35"/>
-      <c r="O508" s="33"/>
-      <c r="P508" s="29"/>
-    </row>
-    <row r="509" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B509" s="35"/>
-      <c r="O509" s="33"/>
-      <c r="P509" s="29"/>
+      <c r="B508" s="4"/>
+      <c r="C508" s="17"/>
+      <c r="D508" s="20"/>
+      <c r="N508" s="9"/>
+      <c r="P508" s="9"/>
+    </row>
+    <row r="509" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B509" s="4"/>
+      <c r="C509" s="17"/>
+      <c r="D509" s="20"/>
+      <c r="N509" s="9"/>
+      <c r="P509" s="9"/>
     </row>
     <row r="510" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B510" s="35"/>
-      <c r="O510" s="33"/>
-      <c r="P510" s="29"/>
+      <c r="B510" s="4"/>
+      <c r="C510" s="17"/>
+      <c r="D510" s="20"/>
+      <c r="N510" s="9"/>
+      <c r="P510" s="9"/>
     </row>
     <row r="511" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B511" s="35"/>
-      <c r="O511" s="33"/>
-      <c r="P511" s="29"/>
+      <c r="B511" s="4"/>
+      <c r="C511" s="17"/>
+      <c r="D511" s="20"/>
+      <c r="N511" s="9"/>
+      <c r="P511" s="9"/>
     </row>
     <row r="512" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B512" s="35"/>
-      <c r="O512" s="33"/>
-      <c r="P512" s="29"/>
+      <c r="B512" s="4"/>
+      <c r="C512" s="17"/>
+      <c r="D512" s="20"/>
+      <c r="N512" s="9"/>
+      <c r="P512" s="9"/>
     </row>
     <row r="513" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B513" s="35"/>
-      <c r="O513" s="33"/>
-      <c r="P513" s="29"/>
+      <c r="B513" s="4"/>
+      <c r="C513" s="17"/>
+      <c r="D513" s="20"/>
+      <c r="N513" s="9"/>
+      <c r="P513" s="9"/>
     </row>
     <row r="514" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B514" s="35"/>
-      <c r="O514" s="33"/>
-      <c r="P514" s="29"/>
+      <c r="B514" s="4"/>
+      <c r="C514" s="17"/>
+      <c r="D514" s="20"/>
+      <c r="N514" s="9"/>
+      <c r="P514" s="9"/>
     </row>
     <row r="515" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B515" s="35"/>
-      <c r="O515" s="33"/>
-      <c r="P515" s="29"/>
+      <c r="B515" s="4"/>
+      <c r="C515" s="17"/>
+      <c r="D515" s="20"/>
+      <c r="N515" s="9"/>
+      <c r="P515" s="9"/>
     </row>
     <row r="516" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B516" s="35"/>
-      <c r="O516" s="33"/>
-      <c r="P516" s="29"/>
+      <c r="B516" s="4"/>
+      <c r="C516" s="17"/>
+      <c r="D516" s="20"/>
+      <c r="N516" s="9"/>
+      <c r="P516" s="9"/>
     </row>
     <row r="517" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B517" s="35"/>
-      <c r="O517" s="33"/>
-      <c r="P517" s="29"/>
+      <c r="B517" s="4"/>
+      <c r="C517" s="17"/>
+      <c r="D517" s="20"/>
+      <c r="N517" s="9"/>
+      <c r="P517" s="9"/>
     </row>
     <row r="518" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B518" s="35"/>
-      <c r="O518" s="33"/>
-      <c r="P518" s="29"/>
+      <c r="B518" s="4"/>
+      <c r="C518" s="17"/>
+      <c r="D518" s="20"/>
+      <c r="N518" s="9"/>
+      <c r="P518" s="9"/>
     </row>
     <row r="519" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B519" s="35"/>
-      <c r="O519" s="33"/>
-      <c r="P519" s="29"/>
+      <c r="B519" s="4"/>
+      <c r="C519" s="17"/>
+      <c r="D519" s="20"/>
+      <c r="N519" s="9"/>
+      <c r="P519" s="9"/>
     </row>
     <row r="520" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B520" s="35"/>
-      <c r="O520" s="33"/>
-      <c r="P520" s="29"/>
+      <c r="B520" s="4"/>
+      <c r="C520" s="17"/>
+      <c r="D520" s="20"/>
+      <c r="N520" s="9"/>
+      <c r="P520" s="9"/>
     </row>
     <row r="521" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B521" s="35"/>
-      <c r="O521" s="33"/>
-      <c r="P521" s="29"/>
+      <c r="B521" s="4"/>
+      <c r="C521" s="17"/>
+      <c r="D521" s="20"/>
+      <c r="N521" s="9"/>
+      <c r="P521" s="9"/>
     </row>
     <row r="522" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B522" s="35"/>
-      <c r="O522" s="33"/>
-      <c r="P522" s="29"/>
+      <c r="B522" s="4"/>
+      <c r="C522" s="17"/>
+      <c r="D522" s="20"/>
+      <c r="N522" s="9"/>
+      <c r="P522" s="9"/>
     </row>
     <row r="523" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B523" s="35"/>
-      <c r="O523" s="33"/>
-      <c r="P523" s="29"/>
+      <c r="B523" s="4"/>
+      <c r="C523" s="17"/>
+      <c r="D523" s="20"/>
+      <c r="N523" s="9"/>
+      <c r="P523" s="9"/>
     </row>
     <row r="524" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B524" s="35"/>
-      <c r="O524" s="33"/>
-      <c r="P524" s="29"/>
+      <c r="B524" s="4"/>
+      <c r="C524" s="17"/>
+      <c r="D524" s="20"/>
+      <c r="N524" s="9"/>
+      <c r="P524" s="9"/>
     </row>
     <row r="525" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B525" s="35"/>
-      <c r="O525" s="33"/>
-      <c r="P525" s="29"/>
+      <c r="B525" s="4"/>
+      <c r="C525" s="17"/>
+      <c r="D525" s="20"/>
+      <c r="N525" s="9"/>
+      <c r="P525" s="9"/>
     </row>
     <row r="526" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B526" s="35"/>
-      <c r="O526" s="33"/>
-      <c r="P526" s="29"/>
+      <c r="B526" s="4"/>
+      <c r="C526" s="17"/>
+      <c r="D526" s="20"/>
+      <c r="N526" s="9"/>
+      <c r="P526" s="9"/>
     </row>
     <row r="527" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B527" s="35"/>
-      <c r="O527" s="33"/>
-      <c r="P527" s="29"/>
+      <c r="B527" s="4"/>
+      <c r="C527" s="17"/>
+      <c r="D527" s="20"/>
+      <c r="N527" s="9"/>
+      <c r="P527" s="9"/>
     </row>
     <row r="528" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B528" s="35"/>
-      <c r="O528" s="33"/>
-      <c r="P528" s="29"/>
-    </row>
-    <row r="529" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B529" s="35"/>
-      <c r="O529" s="33"/>
-      <c r="P529" s="29"/>
-    </row>
-    <row r="530" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B530" s="35"/>
-      <c r="O530" s="33"/>
-      <c r="P530" s="29"/>
-    </row>
-    <row r="531" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B531" s="35"/>
-      <c r="D531" s="44"/>
-      <c r="E531" s="44"/>
-      <c r="F531" s="44"/>
-      <c r="G531" s="44"/>
-      <c r="H531" s="44"/>
-      <c r="I531" s="44"/>
-      <c r="J531" s="44"/>
-      <c r="K531" s="44"/>
-      <c r="L531" s="44"/>
-      <c r="M531" s="44"/>
-      <c r="N531" s="51"/>
-      <c r="O531" s="33"/>
-      <c r="P531" s="29"/>
-    </row>
-    <row r="532" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B532" s="35"/>
-      <c r="D532" s="52" t="s">
+      <c r="B528" s="4"/>
+      <c r="C528" s="17"/>
+      <c r="D528" s="20"/>
+      <c r="N528" s="9"/>
+      <c r="P528" s="9"/>
+    </row>
+    <row r="529" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B529" s="4"/>
+      <c r="C529" s="17"/>
+      <c r="D529" s="20"/>
+      <c r="N529" s="9"/>
+      <c r="P529" s="9"/>
+    </row>
+    <row r="530" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B530" s="4"/>
+      <c r="C530" s="17"/>
+      <c r="D530" s="20"/>
+      <c r="N530" s="9"/>
+      <c r="P530" s="9"/>
+    </row>
+    <row r="531" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B531" s="4"/>
+      <c r="C531" s="17"/>
+      <c r="D531" s="20"/>
+      <c r="N531" s="9"/>
+      <c r="P531" s="9"/>
+    </row>
+    <row r="532" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B532" s="4"/>
+      <c r="C532" s="17"/>
+      <c r="D532" s="20"/>
+      <c r="N532" s="9"/>
+      <c r="P532" s="9"/>
+    </row>
+    <row r="533" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B533" s="4"/>
+      <c r="C533" s="17"/>
+      <c r="D533" s="20"/>
+      <c r="N533" s="9"/>
+      <c r="P533" s="9"/>
+    </row>
+    <row r="534" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B534" s="4"/>
+      <c r="C534" s="17"/>
+      <c r="D534" s="20"/>
+      <c r="N534" s="9"/>
+      <c r="P534" s="9"/>
+    </row>
+    <row r="535" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B535" s="4"/>
+      <c r="C535" s="17"/>
+      <c r="D535" s="20"/>
+      <c r="N535" s="9"/>
+      <c r="P535" s="9"/>
+    </row>
+    <row r="536" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B536" s="4"/>
+      <c r="C536" s="17"/>
+      <c r="D536" s="20"/>
+      <c r="N536" s="9"/>
+      <c r="P536" s="9"/>
+    </row>
+    <row r="537" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B537" s="4"/>
+      <c r="C537" s="17"/>
+      <c r="D537" s="20"/>
+      <c r="N537" s="9"/>
+      <c r="P537" s="9"/>
+    </row>
+    <row r="538" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B538" s="4"/>
+      <c r="C538" s="17"/>
+      <c r="D538" s="20"/>
+      <c r="N538" s="9"/>
+      <c r="P538" s="9"/>
+    </row>
+    <row r="539" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B539" s="4"/>
+      <c r="C539" s="17"/>
+      <c r="D539" s="20"/>
+      <c r="N539" s="9"/>
+      <c r="P539" s="9"/>
+    </row>
+    <row r="540" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B540" s="4"/>
+      <c r="C540" s="17"/>
+      <c r="D540" s="20"/>
+      <c r="N540" s="9"/>
+      <c r="P540" s="9"/>
+    </row>
+    <row r="541" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B541" s="4"/>
+      <c r="C541" s="17"/>
+      <c r="D541" s="20"/>
+      <c r="N541" s="9"/>
+      <c r="P541" s="9"/>
+    </row>
+    <row r="542" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B542" s="4"/>
+      <c r="C542" s="17"/>
+      <c r="D542" s="20"/>
+      <c r="N542" s="9"/>
+      <c r="P542" s="9"/>
+    </row>
+    <row r="543" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B543" s="4"/>
+      <c r="C543" s="17"/>
+      <c r="D543" s="20"/>
+      <c r="N543" s="9"/>
+      <c r="P543" s="9"/>
+    </row>
+    <row r="544" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B544" s="4"/>
+      <c r="C544" s="17"/>
+      <c r="D544" s="20"/>
+      <c r="N544" s="9"/>
+      <c r="P544" s="9"/>
+    </row>
+    <row r="545" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B545" s="4"/>
+      <c r="C545" s="17"/>
+      <c r="D545" s="20"/>
+      <c r="N545" s="9"/>
+      <c r="P545" s="9"/>
+    </row>
+    <row r="546" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B546" s="4"/>
+      <c r="C546" s="17"/>
+      <c r="D546" s="20"/>
+      <c r="N546" s="9"/>
+      <c r="P546" s="9"/>
+    </row>
+    <row r="547" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B547" s="4"/>
+      <c r="C547" s="17"/>
+      <c r="D547" s="20"/>
+      <c r="N547" s="9"/>
+      <c r="P547" s="9"/>
+    </row>
+    <row r="548" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B548" s="4"/>
+      <c r="C548" s="17"/>
+      <c r="D548" s="20"/>
+      <c r="N548" s="9"/>
+      <c r="P548" s="9"/>
+    </row>
+    <row r="549" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B549" s="4"/>
+      <c r="C549" s="17"/>
+      <c r="D549" s="20"/>
+      <c r="N549" s="9"/>
+      <c r="P549" s="9"/>
+    </row>
+    <row r="550" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B550" s="4"/>
+      <c r="C550" s="17"/>
+      <c r="D550" s="20"/>
+      <c r="N550" s="9"/>
+      <c r="P550" s="9"/>
+    </row>
+    <row r="551" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B551" s="4"/>
+      <c r="C551" s="17"/>
+      <c r="D551" s="20"/>
+      <c r="N551" s="9"/>
+      <c r="P551" s="9"/>
+    </row>
+    <row r="552" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B552" s="4"/>
+      <c r="C552" s="17"/>
+      <c r="D552" s="20"/>
+      <c r="N552" s="9"/>
+      <c r="P552" s="9"/>
+    </row>
+    <row r="553" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B553" s="4"/>
+      <c r="C553" s="17"/>
+      <c r="D553" s="20"/>
+      <c r="N553" s="9"/>
+      <c r="P553" s="9"/>
+    </row>
+    <row r="554" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B554" s="4"/>
+      <c r="C554" s="17"/>
+      <c r="D554" s="20"/>
+      <c r="N554" s="9"/>
+      <c r="P554" s="9"/>
+    </row>
+    <row r="555" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B555" s="4"/>
+      <c r="C555" s="17"/>
+      <c r="D555" s="20"/>
+      <c r="N555" s="9"/>
+      <c r="P555" s="9"/>
+    </row>
+    <row r="556" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B556" s="4"/>
+      <c r="C556" s="17"/>
+      <c r="D556" s="20"/>
+      <c r="N556" s="9"/>
+      <c r="P556" s="9"/>
+    </row>
+    <row r="557" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B557" s="4"/>
+      <c r="C557" s="17"/>
+      <c r="D557" s="20"/>
+      <c r="N557" s="9"/>
+      <c r="P557" s="9"/>
+    </row>
+    <row r="558" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B558" s="4"/>
+      <c r="C558" s="17"/>
+      <c r="D558" s="20"/>
+      <c r="N558" s="9"/>
+      <c r="P558" s="9"/>
+    </row>
+    <row r="559" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B559" s="4"/>
+      <c r="C559" s="17"/>
+      <c r="D559" s="20"/>
+      <c r="N559" s="9"/>
+      <c r="P559" s="9"/>
+    </row>
+    <row r="560" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B560" s="4"/>
+      <c r="C560" s="17"/>
+      <c r="D560" s="20"/>
+      <c r="N560" s="9"/>
+      <c r="P560" s="9"/>
+    </row>
+    <row r="561" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B561" s="4"/>
+      <c r="C561" s="17"/>
+      <c r="D561" s="20"/>
+      <c r="N561" s="9"/>
+      <c r="P561" s="9"/>
+    </row>
+    <row r="562" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B562" s="4"/>
+      <c r="C562" s="17"/>
+      <c r="D562" s="20"/>
+      <c r="N562" s="9"/>
+      <c r="P562" s="9"/>
+    </row>
+    <row r="563" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B563" s="4"/>
+      <c r="C563" s="17"/>
+      <c r="D563" s="20"/>
+      <c r="N563" s="9"/>
+      <c r="P563" s="9"/>
+    </row>
+    <row r="564" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B564" s="4"/>
+      <c r="C564" s="17"/>
+      <c r="D564" s="20"/>
+      <c r="N564" s="9"/>
+      <c r="P564" s="9"/>
+    </row>
+    <row r="565" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B565" s="4"/>
+      <c r="C565" s="17"/>
+      <c r="D565" s="20"/>
+      <c r="N565" s="9"/>
+      <c r="P565" s="9"/>
+    </row>
+    <row r="566" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B566" s="4"/>
+      <c r="C566" s="17"/>
+      <c r="D566" s="20"/>
+      <c r="N566" s="9"/>
+      <c r="P566" s="9"/>
+    </row>
+    <row r="567" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B567" s="4"/>
+      <c r="C567" s="17"/>
+      <c r="D567" s="20"/>
+      <c r="N567" s="9"/>
+      <c r="P567" s="9"/>
+    </row>
+    <row r="568" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B568" s="4"/>
+      <c r="C568" s="17"/>
+      <c r="D568" s="20"/>
+      <c r="N568" s="9"/>
+      <c r="P568" s="9"/>
+    </row>
+    <row r="569" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B569" s="4"/>
+      <c r="C569" s="17"/>
+      <c r="D569" s="20"/>
+      <c r="N569" s="9"/>
+      <c r="P569" s="9"/>
+    </row>
+    <row r="570" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B570" s="4"/>
+      <c r="C570" s="17"/>
+      <c r="D570" s="20"/>
+      <c r="N570" s="9"/>
+      <c r="P570" s="9"/>
+    </row>
+    <row r="571" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B571" s="4"/>
+      <c r="C571" s="17"/>
+      <c r="D571" s="20"/>
+      <c r="N571" s="9"/>
+      <c r="P571" s="9"/>
+    </row>
+    <row r="572" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B572" s="4"/>
+      <c r="C572" s="17"/>
+      <c r="D572" s="20"/>
+      <c r="N572" s="9"/>
+      <c r="P572" s="9"/>
+    </row>
+    <row r="573" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B573" s="4"/>
+      <c r="C573" s="17"/>
+      <c r="D573" s="20"/>
+      <c r="N573" s="9"/>
+      <c r="P573" s="9"/>
+    </row>
+    <row r="574" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B574" s="4"/>
+      <c r="C574" s="17"/>
+      <c r="D574" s="20"/>
+      <c r="N574" s="9"/>
+      <c r="P574" s="9"/>
+    </row>
+    <row r="575" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B575" s="4"/>
+      <c r="C575" s="17"/>
+      <c r="D575" s="20"/>
+      <c r="N575" s="9"/>
+      <c r="P575" s="9"/>
+    </row>
+    <row r="576" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B576" s="4"/>
+      <c r="C576" s="17"/>
+      <c r="D576" s="20"/>
+      <c r="N576" s="9"/>
+      <c r="P576" s="9"/>
+    </row>
+    <row r="577" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B577" s="4"/>
+      <c r="C577" s="17"/>
+      <c r="D577" s="20"/>
+      <c r="N577" s="9"/>
+      <c r="P577" s="9"/>
+    </row>
+    <row r="578" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B578" s="4"/>
+      <c r="C578" s="17"/>
+      <c r="D578" s="20"/>
+      <c r="N578" s="9"/>
+      <c r="P578" s="9"/>
+    </row>
+    <row r="579" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B579" s="4"/>
+      <c r="C579" s="17"/>
+      <c r="D579" s="20"/>
+      <c r="N579" s="9"/>
+      <c r="P579" s="9"/>
+    </row>
+    <row r="580" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B580" s="4"/>
+      <c r="C580" s="17"/>
+      <c r="D580" s="20"/>
+      <c r="N580" s="9"/>
+      <c r="P580" s="9"/>
+    </row>
+    <row r="581" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B581" s="4"/>
+      <c r="C581" s="17"/>
+      <c r="D581" s="20"/>
+      <c r="N581" s="9"/>
+      <c r="P581" s="9"/>
+    </row>
+    <row r="582" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B582" s="4"/>
+      <c r="C582" s="17"/>
+      <c r="D582" s="20"/>
+      <c r="N582" s="9"/>
+      <c r="P582" s="9"/>
+    </row>
+    <row r="583" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B583" s="4"/>
+      <c r="C583" s="17"/>
+      <c r="D583" s="20"/>
+      <c r="N583" s="9"/>
+      <c r="P583" s="9"/>
+    </row>
+    <row r="584" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B584" s="4"/>
+      <c r="C584" s="17"/>
+      <c r="D584" s="20"/>
+      <c r="N584" s="9"/>
+      <c r="P584" s="9"/>
+    </row>
+    <row r="585" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B585" s="4"/>
+      <c r="C585" s="17"/>
+      <c r="D585" s="20"/>
+      <c r="N585" s="9"/>
+      <c r="P585" s="9"/>
+    </row>
+    <row r="586" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B586" s="4"/>
+      <c r="C586" s="17"/>
+      <c r="D586" s="20"/>
+      <c r="N586" s="9"/>
+      <c r="P586" s="9"/>
+    </row>
+    <row r="587" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B587" s="4"/>
+      <c r="C587" s="17"/>
+      <c r="D587" s="20"/>
+      <c r="N587" s="9"/>
+      <c r="P587" s="9"/>
+    </row>
+    <row r="588" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B588" s="4"/>
+      <c r="C588" s="17"/>
+      <c r="D588" s="20"/>
+      <c r="N588" s="9"/>
+      <c r="P588" s="9"/>
+    </row>
+    <row r="589" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B589" s="4"/>
+      <c r="C589" s="17"/>
+      <c r="D589" s="20"/>
+      <c r="N589" s="9"/>
+      <c r="P589" s="9"/>
+    </row>
+    <row r="590" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B590" s="4"/>
+      <c r="C590" s="17"/>
+      <c r="D590" s="20"/>
+      <c r="N590" s="9"/>
+      <c r="P590" s="9"/>
+    </row>
+    <row r="591" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B591" s="4"/>
+      <c r="C591" s="17"/>
+      <c r="D591" s="20"/>
+      <c r="N591" s="9"/>
+      <c r="P591" s="9"/>
+    </row>
+    <row r="592" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B592" s="4"/>
+      <c r="C592" s="17"/>
+      <c r="D592" s="20"/>
+      <c r="N592" s="9"/>
+      <c r="P592" s="9"/>
+    </row>
+    <row r="593" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B593" s="4"/>
+      <c r="C593" s="17"/>
+      <c r="D593" s="20"/>
+      <c r="N593" s="9"/>
+      <c r="P593" s="9"/>
+    </row>
+    <row r="594" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B594" s="4"/>
+      <c r="C594" s="17"/>
+      <c r="D594" s="20"/>
+      <c r="N594" s="9"/>
+      <c r="P594" s="9"/>
+    </row>
+    <row r="595" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B595" s="4"/>
+      <c r="C595" s="17"/>
+      <c r="D595" s="20"/>
+      <c r="N595" s="9"/>
+      <c r="P595" s="9"/>
+    </row>
+    <row r="596" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B596" s="4"/>
+      <c r="C596" s="17"/>
+      <c r="D596" s="20"/>
+      <c r="N596" s="9"/>
+      <c r="P596" s="9"/>
+    </row>
+    <row r="597" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B597" s="4"/>
+      <c r="C597" s="17"/>
+      <c r="D597" s="20"/>
+      <c r="N597" s="9"/>
+      <c r="P597" s="9"/>
+    </row>
+    <row r="598" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B598" s="4"/>
+      <c r="C598" s="17"/>
+      <c r="D598" s="20"/>
+      <c r="N598" s="9"/>
+      <c r="P598" s="9"/>
+    </row>
+    <row r="599" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B599" s="4"/>
+      <c r="C599" s="17"/>
+      <c r="D599" s="20"/>
+      <c r="N599" s="9"/>
+      <c r="P599" s="9"/>
+    </row>
+    <row r="600" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B600" s="4"/>
+      <c r="C600" s="17"/>
+      <c r="D600" s="20"/>
+      <c r="N600" s="9"/>
+      <c r="P600" s="9"/>
+    </row>
+    <row r="601" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B601" s="4"/>
+      <c r="C601" s="17"/>
+      <c r="D601" s="20"/>
+      <c r="N601" s="9"/>
+      <c r="P601" s="9"/>
+    </row>
+    <row r="602" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B602" s="4"/>
+      <c r="C602" s="17"/>
+      <c r="D602" s="20"/>
+      <c r="N602" s="9"/>
+      <c r="P602" s="9"/>
+    </row>
+    <row r="603" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B603" s="4"/>
+      <c r="C603" s="17"/>
+      <c r="D603" s="20"/>
+      <c r="N603" s="9"/>
+      <c r="P603" s="9"/>
+    </row>
+    <row r="604" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B604" s="4"/>
+      <c r="C604" s="17"/>
+      <c r="D604" s="20"/>
+      <c r="N604" s="9"/>
+      <c r="P604" s="9"/>
+    </row>
+    <row r="605" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B605" s="4"/>
+      <c r="C605" s="17"/>
+      <c r="D605" s="20"/>
+      <c r="N605" s="9"/>
+      <c r="P605" s="9"/>
+    </row>
+    <row r="606" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B606" s="4"/>
+      <c r="C606" s="17"/>
+      <c r="D606" s="20"/>
+      <c r="N606" s="9"/>
+      <c r="P606" s="9"/>
+    </row>
+    <row r="607" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B607" s="4"/>
+      <c r="C607" s="17"/>
+      <c r="D607" s="20"/>
+      <c r="N607" s="9"/>
+      <c r="P607" s="9"/>
+    </row>
+    <row r="608" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B608" s="4"/>
+      <c r="C608" s="17"/>
+      <c r="D608" s="20"/>
+      <c r="N608" s="9"/>
+      <c r="P608" s="9"/>
+    </row>
+    <row r="609" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B609" s="4"/>
+      <c r="C609" s="17"/>
+      <c r="D609" s="20"/>
+      <c r="N609" s="9"/>
+      <c r="P609" s="9"/>
+    </row>
+    <row r="610" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B610" s="4"/>
+      <c r="C610" s="17"/>
+      <c r="D610" s="20"/>
+      <c r="N610" s="9"/>
+      <c r="P610" s="9"/>
+    </row>
+    <row r="611" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B611" s="4"/>
+      <c r="C611" s="17"/>
+      <c r="D611" s="20"/>
+      <c r="N611" s="9"/>
+      <c r="P611" s="9"/>
+    </row>
+    <row r="612" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B612" s="4"/>
+      <c r="C612" s="17"/>
+      <c r="D612" s="20"/>
+      <c r="N612" s="9"/>
+      <c r="P612" s="9"/>
+    </row>
+    <row r="613" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B613" s="4"/>
+      <c r="C613" s="17"/>
+      <c r="D613" s="20"/>
+      <c r="N613" s="9"/>
+      <c r="P613" s="9"/>
+    </row>
+    <row r="614" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B614" s="4"/>
+      <c r="C614" s="17"/>
+      <c r="D614" s="20"/>
+      <c r="N614" s="9"/>
+      <c r="P614" s="9"/>
+    </row>
+    <row r="615" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B615" s="4"/>
+      <c r="C615" s="17"/>
+      <c r="D615" s="20"/>
+      <c r="N615" s="9"/>
+      <c r="P615" s="9"/>
+    </row>
+    <row r="616" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B616" s="4"/>
+      <c r="C616" s="17"/>
+      <c r="D616" s="20"/>
+      <c r="N616" s="9"/>
+      <c r="P616" s="9"/>
+    </row>
+    <row r="617" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B617" s="4"/>
+      <c r="C617" s="17"/>
+      <c r="D617" s="20"/>
+      <c r="N617" s="9"/>
+      <c r="P617" s="9"/>
+    </row>
+    <row r="618" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B618" s="4"/>
+      <c r="C618" s="17"/>
+      <c r="D618" s="20"/>
+      <c r="N618" s="9"/>
+      <c r="P618" s="9"/>
+    </row>
+    <row r="619" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B619" s="4"/>
+      <c r="C619" s="17"/>
+      <c r="D619" s="20"/>
+      <c r="N619" s="9"/>
+      <c r="P619" s="9"/>
+    </row>
+    <row r="620" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B620" s="4"/>
+      <c r="C620" s="17"/>
+      <c r="D620" s="20"/>
+      <c r="N620" s="9"/>
+      <c r="P620" s="9"/>
+    </row>
+    <row r="621" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B621" s="4"/>
+      <c r="C621" s="17"/>
+      <c r="D621" s="20"/>
+      <c r="N621" s="9"/>
+      <c r="P621" s="9"/>
+    </row>
+    <row r="622" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B622" s="4"/>
+      <c r="C622" s="17"/>
+      <c r="D622" s="20"/>
+      <c r="N622" s="9"/>
+      <c r="P622" s="9"/>
+    </row>
+    <row r="623" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B623" s="4"/>
+      <c r="C623" s="17"/>
+      <c r="D623" s="20"/>
+      <c r="N623" s="9"/>
+      <c r="P623" s="9"/>
+    </row>
+    <row r="624" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B624" s="4"/>
+      <c r="C624" s="17"/>
+      <c r="D624" s="20"/>
+      <c r="N624" s="9"/>
+      <c r="P624" s="9"/>
+    </row>
+    <row r="625" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B625" s="4"/>
+      <c r="C625" s="17"/>
+      <c r="D625" s="20"/>
+      <c r="N625" s="9"/>
+      <c r="P625" s="9"/>
+    </row>
+    <row r="626" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B626" s="4"/>
+      <c r="C626" s="17"/>
+      <c r="D626" s="20"/>
+      <c r="N626" s="9"/>
+      <c r="P626" s="9"/>
+    </row>
+    <row r="627" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B627" s="4"/>
+      <c r="C627" s="17"/>
+      <c r="D627" s="20"/>
+      <c r="N627" s="9"/>
+      <c r="P627" s="9"/>
+    </row>
+    <row r="628" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B628" s="4"/>
+      <c r="C628" s="17"/>
+      <c r="D628" s="20"/>
+      <c r="N628" s="9"/>
+      <c r="P628" s="9"/>
+    </row>
+    <row r="629" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B629" s="4"/>
+      <c r="C629" s="17"/>
+      <c r="D629" s="20"/>
+      <c r="N629" s="9"/>
+      <c r="P629" s="9"/>
+    </row>
+    <row r="630" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B630" s="4"/>
+      <c r="C630" s="17"/>
+      <c r="D630" s="20"/>
+      <c r="N630" s="9"/>
+      <c r="P630" s="9"/>
+    </row>
+    <row r="631" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B631" s="4"/>
+      <c r="C631" s="17"/>
+      <c r="D631" s="20"/>
+      <c r="N631" s="9"/>
+      <c r="P631" s="9"/>
+    </row>
+    <row r="632" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B632" s="4"/>
+      <c r="C632" s="17"/>
+      <c r="D632" s="20"/>
+      <c r="N632" s="9"/>
+      <c r="P632" s="9"/>
+    </row>
+    <row r="633" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B633" s="4"/>
+      <c r="C633" s="17"/>
+      <c r="D633" s="20"/>
+      <c r="N633" s="9"/>
+      <c r="P633" s="9"/>
+    </row>
+    <row r="634" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B634" s="4"/>
+      <c r="C634" s="17"/>
+      <c r="D634" s="20"/>
+      <c r="N634" s="9"/>
+      <c r="P634" s="9"/>
+    </row>
+    <row r="635" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B635" s="4"/>
+      <c r="C635" s="17"/>
+      <c r="D635" s="20"/>
+      <c r="N635" s="9"/>
+      <c r="P635" s="9"/>
+    </row>
+    <row r="636" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B636" s="4"/>
+      <c r="C636" s="17"/>
+      <c r="D636" s="20"/>
+      <c r="N636" s="9"/>
+      <c r="P636" s="9"/>
+    </row>
+    <row r="637" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B637" s="4"/>
+      <c r="C637" s="17"/>
+      <c r="D637" s="20"/>
+      <c r="N637" s="9"/>
+      <c r="P637" s="9"/>
+    </row>
+    <row r="638" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B638" s="4"/>
+      <c r="C638" s="17"/>
+      <c r="D638" s="20"/>
+      <c r="N638" s="9"/>
+      <c r="P638" s="9"/>
+    </row>
+    <row r="639" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B639" s="4"/>
+      <c r="C639" s="17"/>
+      <c r="D639" s="20"/>
+      <c r="N639" s="9"/>
+      <c r="P639" s="9"/>
+    </row>
+    <row r="640" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B640" s="4"/>
+      <c r="C640" s="17"/>
+      <c r="D640" s="20"/>
+      <c r="N640" s="9"/>
+      <c r="P640" s="9"/>
+    </row>
+    <row r="641" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B641" s="4"/>
+      <c r="C641" s="17"/>
+      <c r="D641" s="20"/>
+      <c r="N641" s="9"/>
+      <c r="P641" s="9"/>
+    </row>
+    <row r="642" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B642" s="4"/>
+      <c r="C642" s="17"/>
+      <c r="D642" s="20"/>
+      <c r="N642" s="9"/>
+      <c r="P642" s="9"/>
+    </row>
+    <row r="643" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B643" s="4"/>
+      <c r="C643" s="17"/>
+      <c r="D643" s="20"/>
+      <c r="N643" s="9"/>
+      <c r="P643" s="9"/>
+    </row>
+    <row r="644" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B644" s="4"/>
+      <c r="C644" s="17"/>
+      <c r="D644" s="20"/>
+      <c r="N644" s="9"/>
+      <c r="P644" s="9"/>
+    </row>
+    <row r="645" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B645" s="4"/>
+      <c r="C645" s="17"/>
+      <c r="D645" s="20"/>
+      <c r="N645" s="9"/>
+      <c r="P645" s="9"/>
+    </row>
+    <row r="646" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B646" s="4"/>
+      <c r="C646" s="17"/>
+      <c r="D646" s="20"/>
+      <c r="N646" s="9"/>
+      <c r="P646" s="9"/>
+    </row>
+    <row r="647" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B647" s="4"/>
+      <c r="C647" s="17"/>
+      <c r="D647" s="20"/>
+      <c r="N647" s="9"/>
+      <c r="P647" s="9"/>
+    </row>
+    <row r="648" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B648" s="4"/>
+      <c r="C648" s="17"/>
+      <c r="D648" s="20"/>
+      <c r="N648" s="9"/>
+      <c r="P648" s="9"/>
+    </row>
+    <row r="649" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B649" s="4"/>
+      <c r="C649" s="17"/>
+      <c r="D649" s="20"/>
+      <c r="N649" s="9"/>
+      <c r="P649" s="9"/>
+    </row>
+    <row r="650" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B650" s="4"/>
+      <c r="C650" s="17"/>
+      <c r="D650" s="20"/>
+      <c r="N650" s="9"/>
+      <c r="P650" s="9"/>
+    </row>
+    <row r="651" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B651" s="4"/>
+      <c r="C651" s="17"/>
+      <c r="D651" s="20"/>
+      <c r="N651" s="9"/>
+      <c r="P651" s="9"/>
+    </row>
+    <row r="652" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B652" s="4"/>
+      <c r="C652" s="17"/>
+      <c r="D652" s="20"/>
+      <c r="N652" s="9"/>
+      <c r="P652" s="9"/>
+    </row>
+    <row r="653" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B653" s="4"/>
+      <c r="C653" s="17"/>
+      <c r="D653" s="20"/>
+      <c r="N653" s="9"/>
+      <c r="P653" s="9"/>
+    </row>
+    <row r="654" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B654" s="4"/>
+      <c r="C654" s="17"/>
+      <c r="D654" s="20"/>
+      <c r="N654" s="9"/>
+      <c r="P654" s="9"/>
+    </row>
+    <row r="655" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B655" s="4"/>
+      <c r="C655" s="17"/>
+      <c r="D655" s="20"/>
+      <c r="N655" s="9"/>
+      <c r="P655" s="9"/>
+    </row>
+    <row r="656" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B656" s="4"/>
+      <c r="C656" s="17"/>
+      <c r="D656" s="20"/>
+      <c r="N656" s="9"/>
+      <c r="P656" s="9"/>
+    </row>
+    <row r="657" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B657" s="4"/>
+      <c r="C657" s="17"/>
+      <c r="D657" s="20"/>
+      <c r="N657" s="9"/>
+      <c r="P657" s="9"/>
+    </row>
+    <row r="658" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B658" s="4"/>
+      <c r="C658" s="17"/>
+      <c r="D658" s="20"/>
+      <c r="N658" s="9"/>
+      <c r="P658" s="9"/>
+    </row>
+    <row r="659" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B659" s="4"/>
+      <c r="C659" s="17"/>
+      <c r="D659" s="20"/>
+      <c r="N659" s="9"/>
+      <c r="P659" s="9"/>
+    </row>
+    <row r="660" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B660" s="4"/>
+      <c r="C660" s="17"/>
+      <c r="D660" s="20"/>
+      <c r="N660" s="9"/>
+      <c r="P660" s="9"/>
+    </row>
+    <row r="661" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B661" s="4"/>
+      <c r="C661" s="17"/>
+      <c r="D661" s="20"/>
+      <c r="N661" s="9"/>
+      <c r="P661" s="9"/>
+    </row>
+    <row r="662" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B662" s="4"/>
+      <c r="C662" s="17"/>
+      <c r="D662" s="20"/>
+      <c r="N662" s="9"/>
+      <c r="P662" s="9"/>
+    </row>
+    <row r="663" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B663" s="4"/>
+      <c r="C663" s="17"/>
+      <c r="D663" s="20"/>
+      <c r="N663" s="9"/>
+      <c r="P663" s="9"/>
+    </row>
+    <row r="664" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B664" s="4"/>
+      <c r="C664" s="17"/>
+      <c r="D664" s="20"/>
+      <c r="N664" s="9"/>
+      <c r="P664" s="9"/>
+    </row>
+    <row r="665" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B665" s="4"/>
+      <c r="C665" s="17"/>
+      <c r="D665" s="20"/>
+      <c r="N665" s="9"/>
+      <c r="P665" s="9"/>
+    </row>
+    <row r="666" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B666" s="4"/>
+      <c r="C666" s="17"/>
+      <c r="D666" s="20"/>
+      <c r="N666" s="9"/>
+      <c r="P666" s="9"/>
+    </row>
+    <row r="667" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B667" s="4"/>
+      <c r="C667" s="17"/>
+      <c r="D667" s="20"/>
+      <c r="N667" s="9"/>
+      <c r="P667" s="9"/>
+    </row>
+    <row r="668" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B668" s="4"/>
+      <c r="C668" s="17"/>
+      <c r="D668" s="20"/>
+      <c r="N668" s="9"/>
+      <c r="P668" s="9"/>
+    </row>
+    <row r="669" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B669" s="4"/>
+      <c r="C669" s="17"/>
+      <c r="D669" s="20"/>
+      <c r="N669" s="9"/>
+      <c r="P669" s="9"/>
+    </row>
+    <row r="670" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B670" s="4"/>
+      <c r="C670" s="17"/>
+      <c r="D670" s="20"/>
+      <c r="N670" s="9"/>
+      <c r="P670" s="9"/>
+    </row>
+    <row r="671" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B671" s="4"/>
+      <c r="C671" s="17"/>
+      <c r="D671" s="20"/>
+      <c r="N671" s="9"/>
+      <c r="P671" s="9"/>
+    </row>
+    <row r="672" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B672" s="4"/>
+      <c r="C672" s="17"/>
+      <c r="D672" s="20"/>
+      <c r="N672" s="9"/>
+      <c r="P672" s="9"/>
+    </row>
+    <row r="673" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B673" s="4"/>
+      <c r="C673" s="17"/>
+      <c r="D673" s="20"/>
+      <c r="N673" s="9"/>
+      <c r="P673" s="9"/>
+    </row>
+    <row r="674" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B674" s="4"/>
+      <c r="C674" s="17"/>
+      <c r="D674" s="20"/>
+      <c r="N674" s="9"/>
+      <c r="P674" s="9"/>
+    </row>
+    <row r="675" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B675" s="4"/>
+      <c r="C675" s="17"/>
+      <c r="D675" s="20"/>
+      <c r="N675" s="9"/>
+      <c r="P675" s="9"/>
+    </row>
+    <row r="676" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B676" s="4"/>
+      <c r="C676" s="17"/>
+      <c r="D676" s="20"/>
+      <c r="N676" s="9"/>
+      <c r="P676" s="9"/>
+    </row>
+    <row r="677" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B677" s="4"/>
+      <c r="C677" s="17"/>
+      <c r="D677" s="20"/>
+      <c r="N677" s="9"/>
+      <c r="P677" s="9"/>
+    </row>
+    <row r="678" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B678" s="4"/>
+      <c r="C678" s="17"/>
+      <c r="D678" s="20"/>
+      <c r="N678" s="9"/>
+      <c r="P678" s="9"/>
+    </row>
+    <row r="679" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B679" s="4"/>
+      <c r="C679" s="17"/>
+      <c r="D679" s="20"/>
+      <c r="N679" s="9"/>
+      <c r="P679" s="9"/>
+    </row>
+    <row r="680" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B680" s="4"/>
+      <c r="C680" s="17"/>
+      <c r="D680" s="20"/>
+      <c r="N680" s="9"/>
+      <c r="P680" s="9"/>
+    </row>
+    <row r="681" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B681" s="4"/>
+      <c r="C681" s="17"/>
+      <c r="D681" s="20"/>
+      <c r="N681" s="9"/>
+      <c r="P681" s="9"/>
+    </row>
+    <row r="682" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B682" s="4"/>
+      <c r="C682" s="17"/>
+      <c r="D682" s="20"/>
+      <c r="N682" s="9"/>
+      <c r="P682" s="9"/>
+    </row>
+    <row r="683" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B683" s="4"/>
+      <c r="C683" s="17"/>
+      <c r="D683" s="20"/>
+      <c r="N683" s="9"/>
+      <c r="P683" s="9"/>
+    </row>
+    <row r="684" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B684" s="4"/>
+      <c r="C684" s="17"/>
+      <c r="D684" s="20"/>
+      <c r="N684" s="9"/>
+      <c r="P684" s="9"/>
+    </row>
+    <row r="685" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B685" s="4"/>
+      <c r="C685" s="17"/>
+      <c r="D685" s="20"/>
+      <c r="N685" s="9"/>
+      <c r="P685" s="9"/>
+    </row>
+    <row r="686" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B686" s="4"/>
+      <c r="C686" s="17"/>
+      <c r="D686" s="20"/>
+      <c r="N686" s="9"/>
+      <c r="P686" s="9"/>
+    </row>
+    <row r="687" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B687" s="4"/>
+      <c r="C687" s="17"/>
+      <c r="D687" s="20"/>
+      <c r="N687" s="9"/>
+      <c r="P687" s="9"/>
+    </row>
+    <row r="688" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B688" s="4"/>
+      <c r="C688" s="17"/>
+      <c r="D688" s="20"/>
+      <c r="N688" s="9"/>
+      <c r="P688" s="9"/>
+    </row>
+    <row r="689" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B689" s="4"/>
+      <c r="C689" s="17"/>
+      <c r="D689" s="20"/>
+      <c r="N689" s="9"/>
+      <c r="P689" s="9"/>
+    </row>
+    <row r="690" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B690" s="4"/>
+      <c r="C690" s="17"/>
+      <c r="D690" s="20"/>
+      <c r="N690" s="9"/>
+      <c r="P690" s="9"/>
+    </row>
+    <row r="691" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B691" s="4"/>
+      <c r="C691" s="17"/>
+      <c r="D691" s="20"/>
+      <c r="N691" s="9"/>
+      <c r="P691" s="9"/>
+    </row>
+    <row r="692" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B692" s="4"/>
+      <c r="C692" s="17"/>
+      <c r="D692" s="20"/>
+      <c r="N692" s="9"/>
+      <c r="P692" s="9"/>
+    </row>
+    <row r="693" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B693" s="4"/>
+      <c r="C693" s="17"/>
+      <c r="D693" s="20"/>
+      <c r="N693" s="9"/>
+      <c r="P693" s="9"/>
+    </row>
+    <row r="694" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B694" s="4"/>
+      <c r="C694" s="17"/>
+      <c r="D694" s="20"/>
+      <c r="N694" s="9"/>
+      <c r="P694" s="9"/>
+    </row>
+    <row r="695" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B695" s="4"/>
+      <c r="C695" s="17"/>
+      <c r="D695" s="20"/>
+      <c r="N695" s="9"/>
+      <c r="P695" s="9"/>
+    </row>
+    <row r="696" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B696" s="4"/>
+      <c r="C696" s="17"/>
+      <c r="D696" s="20"/>
+      <c r="N696" s="9"/>
+      <c r="P696" s="9"/>
+    </row>
+    <row r="697" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B697" s="4"/>
+      <c r="C697" s="17"/>
+      <c r="D697" s="20"/>
+      <c r="N697" s="9"/>
+      <c r="P697" s="9"/>
+    </row>
+    <row r="698" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B698" s="4"/>
+      <c r="C698" s="17"/>
+      <c r="D698" s="20"/>
+      <c r="N698" s="9"/>
+      <c r="P698" s="9"/>
+    </row>
+    <row r="699" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B699" s="4"/>
+      <c r="C699" s="17"/>
+      <c r="D699" s="20"/>
+      <c r="N699" s="9"/>
+      <c r="P699" s="9"/>
+    </row>
+    <row r="700" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B700" s="4"/>
+      <c r="C700" s="17"/>
+      <c r="D700" s="20"/>
+      <c r="N700" s="9"/>
+      <c r="P700" s="9"/>
+    </row>
+    <row r="701" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B701" s="4"/>
+      <c r="C701" s="17"/>
+      <c r="D701" s="20"/>
+      <c r="N701" s="9"/>
+      <c r="P701" s="9"/>
+    </row>
+    <row r="702" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B702" s="4"/>
+      <c r="C702" s="17"/>
+      <c r="D702" s="20"/>
+      <c r="N702" s="9"/>
+      <c r="P702" s="9"/>
+    </row>
+    <row r="703" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B703" s="4"/>
+      <c r="C703" s="17"/>
+      <c r="D703" s="20"/>
+      <c r="N703" s="9"/>
+      <c r="P703" s="9"/>
+    </row>
+    <row r="704" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B704" s="4"/>
+      <c r="C704" s="17"/>
+      <c r="D704" s="20"/>
+      <c r="N704" s="9"/>
+      <c r="P704" s="9"/>
+    </row>
+    <row r="705" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B705" s="4"/>
+      <c r="C705" s="17"/>
+      <c r="D705" s="20"/>
+      <c r="N705" s="9"/>
+      <c r="P705" s="9"/>
+    </row>
+    <row r="706" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B706" s="4"/>
+      <c r="C706" s="17"/>
+      <c r="D706" s="20"/>
+      <c r="N706" s="9"/>
+      <c r="P706" s="9"/>
+    </row>
+    <row r="707" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B707" s="4"/>
+      <c r="C707" s="17"/>
+      <c r="D707" s="20"/>
+      <c r="N707" s="9"/>
+      <c r="P707" s="9"/>
+    </row>
+    <row r="708" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B708" s="4"/>
+      <c r="C708" s="17"/>
+      <c r="D708" s="20"/>
+      <c r="N708" s="9"/>
+      <c r="P708" s="9"/>
+    </row>
+    <row r="709" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B709" s="4"/>
+      <c r="C709" s="17"/>
+      <c r="D709" s="20"/>
+      <c r="N709" s="9"/>
+      <c r="P709" s="9"/>
+    </row>
+    <row r="710" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B710" s="4"/>
+      <c r="C710" s="17"/>
+      <c r="D710" s="20"/>
+      <c r="N710" s="9"/>
+      <c r="P710" s="9"/>
+    </row>
+    <row r="711" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B711" s="4"/>
+      <c r="C711" s="17"/>
+      <c r="D711" s="20"/>
+      <c r="N711" s="9"/>
+      <c r="P711" s="9"/>
+    </row>
+    <row r="712" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B712" s="4"/>
+      <c r="C712" s="17"/>
+      <c r="D712" s="20"/>
+      <c r="N712" s="9"/>
+      <c r="P712" s="9"/>
+    </row>
+    <row r="713" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B713" s="4"/>
+      <c r="C713" s="17"/>
+      <c r="D713" s="20"/>
+      <c r="N713" s="9"/>
+      <c r="P713" s="9"/>
+    </row>
+    <row r="714" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B714" s="4"/>
+      <c r="C714" s="17"/>
+      <c r="D714" s="20"/>
+      <c r="N714" s="9"/>
+      <c r="P714" s="9"/>
+    </row>
+    <row r="715" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B715" s="4"/>
+      <c r="C715" s="17"/>
+      <c r="D715" s="20"/>
+      <c r="N715" s="9"/>
+      <c r="P715" s="9"/>
+    </row>
+    <row r="716" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B716" s="4"/>
+      <c r="C716" s="17"/>
+      <c r="D716" s="20"/>
+      <c r="N716" s="9"/>
+      <c r="P716" s="9"/>
+    </row>
+    <row r="717" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B717" s="4"/>
+      <c r="C717" s="17"/>
+      <c r="D717" s="20"/>
+      <c r="N717" s="9"/>
+      <c r="P717" s="9"/>
+    </row>
+    <row r="718" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B718" s="4"/>
+      <c r="C718" s="17"/>
+      <c r="D718" s="20"/>
+      <c r="N718" s="9"/>
+      <c r="P718" s="9"/>
+    </row>
+    <row r="719" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B719" s="4"/>
+      <c r="C719" s="17"/>
+      <c r="D719" s="20"/>
+      <c r="N719" s="9"/>
+      <c r="P719" s="9"/>
+    </row>
+    <row r="720" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B720" s="4"/>
+      <c r="C720" s="17"/>
+      <c r="D720" s="20"/>
+      <c r="N720" s="9"/>
+      <c r="P720" s="9"/>
+    </row>
+    <row r="721" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B721" s="4"/>
+      <c r="C721" s="17"/>
+      <c r="D721" s="20"/>
+      <c r="N721" s="9"/>
+      <c r="P721" s="9"/>
+    </row>
+    <row r="722" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B722" s="4"/>
+      <c r="C722" s="17"/>
+      <c r="D722" s="20"/>
+      <c r="N722" s="9"/>
+      <c r="P722" s="9"/>
+    </row>
+    <row r="723" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B723" s="4"/>
+      <c r="C723" s="17"/>
+      <c r="D723" s="20"/>
+      <c r="N723" s="9"/>
+      <c r="P723" s="9"/>
+    </row>
+    <row r="724" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B724" s="4"/>
+      <c r="C724" s="17"/>
+      <c r="D724" s="20"/>
+      <c r="N724" s="9"/>
+      <c r="P724" s="9"/>
+    </row>
+    <row r="725" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B725" s="4"/>
+      <c r="C725" s="17"/>
+      <c r="D725" s="20"/>
+      <c r="N725" s="9"/>
+      <c r="P725" s="9"/>
+    </row>
+    <row r="726" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B726" s="4"/>
+      <c r="C726" s="17"/>
+      <c r="D726" s="20"/>
+      <c r="N726" s="9"/>
+      <c r="P726" s="9"/>
+    </row>
+    <row r="727" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B727" s="4"/>
+      <c r="C727" s="17"/>
+      <c r="D727" s="20"/>
+      <c r="N727" s="9"/>
+      <c r="P727" s="9"/>
+    </row>
+    <row r="728" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B728" s="4"/>
+      <c r="C728" s="17"/>
+      <c r="D728" s="20"/>
+      <c r="N728" s="9"/>
+      <c r="P728" s="9"/>
+    </row>
+    <row r="729" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B729" s="4"/>
+      <c r="C729" s="17"/>
+      <c r="D729" s="20"/>
+      <c r="N729" s="9"/>
+      <c r="P729" s="9"/>
+    </row>
+    <row r="730" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B730" s="4"/>
+      <c r="C730" s="17"/>
+      <c r="D730" s="20"/>
+      <c r="N730" s="9"/>
+      <c r="P730" s="9"/>
+    </row>
+    <row r="731" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B731" s="4"/>
+      <c r="C731" s="17"/>
+      <c r="D731" s="20"/>
+      <c r="N731" s="9"/>
+      <c r="P731" s="9"/>
+    </row>
+    <row r="732" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B732" s="4"/>
+      <c r="C732" s="17"/>
+      <c r="D732" s="20"/>
+      <c r="N732" s="9"/>
+      <c r="P732" s="9"/>
+    </row>
+    <row r="733" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B733" s="4"/>
+      <c r="C733" s="17"/>
+      <c r="D733" s="20"/>
+      <c r="N733" s="9"/>
+      <c r="P733" s="9"/>
+    </row>
+    <row r="734" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B734" s="4"/>
+      <c r="C734" s="17"/>
+      <c r="D734" s="20"/>
+      <c r="N734" s="9"/>
+      <c r="P734" s="9"/>
+    </row>
+    <row r="735" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B735" s="4"/>
+      <c r="C735" s="17"/>
+      <c r="D735" s="20"/>
+      <c r="N735" s="9"/>
+      <c r="P735" s="9"/>
+    </row>
+    <row r="736" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B736" s="4"/>
+      <c r="C736" s="17"/>
+      <c r="D736" s="20"/>
+      <c r="N736" s="9"/>
+      <c r="P736" s="9"/>
+    </row>
+    <row r="737" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B737" s="4"/>
+      <c r="C737" s="17"/>
+      <c r="D737" s="20"/>
+      <c r="N737" s="9"/>
+      <c r="P737" s="9"/>
+    </row>
+    <row r="738" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B738" s="4"/>
+      <c r="C738" s="17"/>
+      <c r="D738" s="20"/>
+      <c r="N738" s="9"/>
+      <c r="P738" s="9"/>
+    </row>
+    <row r="739" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B739" s="4"/>
+      <c r="C739" s="17"/>
+      <c r="D739" s="20"/>
+      <c r="N739" s="9"/>
+      <c r="P739" s="9"/>
+    </row>
+    <row r="740" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B740" s="4"/>
+      <c r="C740" s="17"/>
+      <c r="D740" s="20"/>
+      <c r="N740" s="9"/>
+      <c r="P740" s="9"/>
+    </row>
+    <row r="741" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B741" s="4"/>
+      <c r="C741" s="17"/>
+      <c r="D741" s="20"/>
+      <c r="N741" s="9"/>
+      <c r="P741" s="9"/>
+    </row>
+    <row r="742" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B742" s="4"/>
+      <c r="C742" s="17"/>
+      <c r="D742" s="20"/>
+      <c r="N742" s="9"/>
+      <c r="P742" s="9"/>
+    </row>
+    <row r="743" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B743" s="4"/>
+      <c r="C743" s="17"/>
+      <c r="D743" s="20"/>
+      <c r="N743" s="9"/>
+      <c r="P743" s="9"/>
+    </row>
+    <row r="744" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B744" s="4"/>
+      <c r="C744" s="17"/>
+      <c r="D744" s="20"/>
+      <c r="N744" s="9"/>
+      <c r="P744" s="9"/>
+    </row>
+    <row r="745" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B745" s="4"/>
+      <c r="C745" s="17"/>
+      <c r="D745" s="20"/>
+      <c r="N745" s="9"/>
+      <c r="P745" s="9"/>
+    </row>
+    <row r="746" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B746" s="4"/>
+      <c r="C746" s="17"/>
+      <c r="D746" s="20"/>
+      <c r="N746" s="9"/>
+      <c r="P746" s="9"/>
+    </row>
+    <row r="747" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B747" s="4"/>
+      <c r="C747" s="17"/>
+      <c r="D747" s="20"/>
+      <c r="N747" s="9"/>
+      <c r="P747" s="9"/>
+    </row>
+    <row r="748" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B748" s="4"/>
+      <c r="C748" s="17"/>
+      <c r="D748" s="20"/>
+      <c r="N748" s="9"/>
+      <c r="P748" s="9"/>
+    </row>
+    <row r="749" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B749" s="4"/>
+      <c r="C749" s="17"/>
+      <c r="D749" s="20"/>
+      <c r="N749" s="9"/>
+      <c r="P749" s="9"/>
+    </row>
+    <row r="750" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B750" s="4"/>
+      <c r="C750" s="17"/>
+      <c r="D750" s="20"/>
+      <c r="N750" s="9"/>
+      <c r="P750" s="9"/>
+    </row>
+    <row r="751" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B751" s="4"/>
+      <c r="C751" s="17"/>
+      <c r="D751" s="20"/>
+      <c r="N751" s="9"/>
+      <c r="P751" s="9"/>
+    </row>
+    <row r="752" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B752" s="4"/>
+      <c r="C752" s="17"/>
+      <c r="D752" s="20"/>
+      <c r="N752" s="9"/>
+      <c r="P752" s="9"/>
+    </row>
+    <row r="753" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B753" s="4"/>
+      <c r="C753" s="17"/>
+      <c r="D753" s="20"/>
+      <c r="N753" s="9"/>
+      <c r="P753" s="9"/>
+    </row>
+    <row r="754" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B754" s="4"/>
+      <c r="C754" s="17"/>
+      <c r="D754" s="20"/>
+      <c r="N754" s="9"/>
+      <c r="P754" s="9"/>
+    </row>
+    <row r="755" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B755" s="4"/>
+      <c r="C755" s="17"/>
+      <c r="D755" s="20"/>
+      <c r="N755" s="9"/>
+      <c r="P755" s="9"/>
+    </row>
+    <row r="756" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B756" s="4"/>
+      <c r="C756" s="17"/>
+      <c r="N756" s="9"/>
+      <c r="P756" s="9"/>
+    </row>
+    <row r="757" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B757" s="4"/>
+      <c r="C757" s="17"/>
+      <c r="D757" s="20"/>
+      <c r="N757" s="9"/>
+      <c r="P757" s="9"/>
+    </row>
+    <row r="758" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B758" s="4"/>
+      <c r="C758" s="17"/>
+      <c r="D758" s="20"/>
+      <c r="N758" s="9"/>
+      <c r="P758" s="9"/>
+    </row>
+    <row r="759" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B759" s="4"/>
+      <c r="C759" s="17"/>
+      <c r="D759" s="20"/>
+      <c r="N759" s="9"/>
+      <c r="P759" s="9"/>
+    </row>
+    <row r="760" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B760" s="4"/>
+      <c r="C760" s="17"/>
+      <c r="D760" s="20"/>
+      <c r="N760" s="9"/>
+      <c r="P760" s="9"/>
+    </row>
+    <row r="761" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B761" s="4"/>
+      <c r="C761" s="17"/>
+      <c r="D761" s="20"/>
+      <c r="N761" s="9"/>
+      <c r="P761" s="9"/>
+    </row>
+    <row r="762" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B762" s="4"/>
+      <c r="C762" s="17"/>
+      <c r="D762" s="20"/>
+      <c r="N762" s="9"/>
+      <c r="P762" s="9"/>
+    </row>
+    <row r="763" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B763" s="4"/>
+      <c r="C763" s="17"/>
+      <c r="D763" s="20"/>
+      <c r="N763" s="9"/>
+      <c r="P763" s="9"/>
+    </row>
+    <row r="764" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B764" s="4"/>
+      <c r="C764" s="17"/>
+      <c r="D764" s="20"/>
+      <c r="N764" s="9"/>
+      <c r="P764" s="9"/>
+    </row>
+    <row r="765" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B765" s="4"/>
+      <c r="C765" s="17"/>
+      <c r="D765" s="20"/>
+      <c r="N765" s="9"/>
+      <c r="P765" s="9"/>
+    </row>
+    <row r="766" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B766" s="4"/>
+      <c r="C766" s="17"/>
+      <c r="D766" s="20"/>
+      <c r="N766" s="9"/>
+      <c r="P766" s="9"/>
+    </row>
+    <row r="767" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B767" s="4"/>
+      <c r="C767" s="17"/>
+      <c r="D767" s="20"/>
+      <c r="N767" s="9"/>
+      <c r="P767" s="9"/>
+    </row>
+    <row r="768" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B768" s="4"/>
+      <c r="C768" s="17"/>
+      <c r="D768" s="27"/>
+      <c r="E768" s="27"/>
+      <c r="F768" s="27"/>
+      <c r="G768" s="27"/>
+      <c r="H768" s="27"/>
+      <c r="I768" s="27"/>
+      <c r="J768" s="27"/>
+      <c r="K768" s="27"/>
+      <c r="L768" s="27"/>
+      <c r="M768" s="27"/>
+      <c r="N768" s="9"/>
+      <c r="P768" s="9"/>
+    </row>
+    <row r="769" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B769" s="4"/>
+      <c r="C769" s="17"/>
+      <c r="D769" s="27"/>
+      <c r="E769" s="27"/>
+      <c r="F769" s="27"/>
+      <c r="G769" s="27"/>
+      <c r="H769" s="27"/>
+      <c r="I769" s="27"/>
+      <c r="J769" s="27"/>
+      <c r="K769" s="27"/>
+      <c r="L769" s="27"/>
+      <c r="M769" s="27"/>
+      <c r="N769" s="9"/>
+      <c r="P769" s="9"/>
+    </row>
+    <row r="770" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B770" s="4"/>
+      <c r="C770" s="17"/>
+      <c r="D770" s="27"/>
+      <c r="N770" s="9"/>
+      <c r="P770" s="9"/>
+    </row>
+    <row r="771" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B771" s="4"/>
+      <c r="C771" s="17"/>
+      <c r="N771" s="9"/>
+      <c r="P771" s="9"/>
+    </row>
+    <row r="772" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B772" s="34"/>
+      <c r="C772" s="21"/>
+      <c r="D772" s="21"/>
+      <c r="E772" s="21"/>
+      <c r="F772" s="21"/>
+      <c r="G772" s="21"/>
+      <c r="H772" s="21"/>
+      <c r="I772" s="21"/>
+      <c r="J772" s="21"/>
+      <c r="K772" s="21"/>
+      <c r="L772" s="21"/>
+      <c r="M772" s="21"/>
+      <c r="N772" s="9"/>
+      <c r="O772" s="33"/>
+      <c r="P772" s="9"/>
+    </row>
+    <row r="773" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B773" s="34"/>
+      <c r="C773" s="21"/>
+      <c r="D773" s="21"/>
+      <c r="E773" s="21"/>
+      <c r="F773" s="21"/>
+      <c r="G773" s="21"/>
+      <c r="H773" s="21"/>
+      <c r="I773" s="21"/>
+      <c r="J773" s="21"/>
+      <c r="K773" s="21"/>
+      <c r="L773" s="21"/>
+      <c r="M773" s="21"/>
+      <c r="N773" s="9"/>
+      <c r="O773" s="4"/>
+      <c r="P773" s="9"/>
+    </row>
+    <row r="774" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B774" s="35"/>
+      <c r="N774" s="9"/>
+      <c r="O774" s="33"/>
+      <c r="P774" s="29"/>
+    </row>
+    <row r="775" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B775" s="35"/>
+      <c r="N775" s="9"/>
+      <c r="O775" s="33"/>
+      <c r="P775" s="29"/>
+    </row>
+    <row r="776" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B776" s="35"/>
+      <c r="N776" s="9"/>
+      <c r="O776" s="33"/>
+      <c r="P776" s="29"/>
+    </row>
+    <row r="777" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B777" s="35"/>
+      <c r="N777" s="9"/>
+      <c r="O777" s="33"/>
+      <c r="P777" s="29"/>
+    </row>
+    <row r="778" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B778" s="35"/>
+      <c r="N778" s="9"/>
+      <c r="O778" s="33"/>
+      <c r="P778" s="29"/>
+    </row>
+    <row r="779" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B779" s="35"/>
+      <c r="N779" s="9"/>
+      <c r="O779" s="33"/>
+      <c r="P779" s="29"/>
+    </row>
+    <row r="780" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B780" s="35"/>
+      <c r="N780" s="9"/>
+      <c r="O780" s="33"/>
+      <c r="P780" s="29"/>
+    </row>
+    <row r="781" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B781" s="35"/>
+      <c r="N781" s="9"/>
+      <c r="O781" s="33"/>
+      <c r="P781" s="29"/>
+    </row>
+    <row r="782" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B782" s="35"/>
+      <c r="N782" s="9"/>
+      <c r="O782" s="33"/>
+      <c r="P782" s="29"/>
+    </row>
+    <row r="783" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B783" s="35"/>
+      <c r="N783" s="9"/>
+      <c r="O783" s="33"/>
+      <c r="P783" s="29"/>
+    </row>
+    <row r="784" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B784" s="35"/>
+      <c r="N784" s="9"/>
+      <c r="O784" s="33"/>
+      <c r="P784" s="29"/>
+    </row>
+    <row r="785" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B785" s="35"/>
+      <c r="N785" s="9"/>
+      <c r="O785" s="33"/>
+      <c r="P785" s="29"/>
+    </row>
+    <row r="786" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B786" s="35"/>
+      <c r="N786" s="9"/>
+      <c r="O786" s="33"/>
+      <c r="P786" s="29"/>
+    </row>
+    <row r="787" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B787" s="35"/>
+      <c r="N787" s="9"/>
+      <c r="O787" s="33"/>
+      <c r="P787" s="29"/>
+    </row>
+    <row r="788" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B788" s="35"/>
+      <c r="N788" s="9"/>
+      <c r="O788" s="33"/>
+      <c r="P788" s="29"/>
+    </row>
+    <row r="789" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B789" s="35"/>
+      <c r="N789" s="9"/>
+      <c r="O789" s="33"/>
+      <c r="P789" s="29"/>
+    </row>
+    <row r="790" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B790" s="35"/>
+      <c r="N790" s="9"/>
+      <c r="O790" s="33"/>
+      <c r="P790" s="29"/>
+    </row>
+    <row r="791" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B791" s="35"/>
+      <c r="N791" s="9"/>
+      <c r="O791" s="33"/>
+      <c r="P791" s="29"/>
+    </row>
+    <row r="792" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B792" s="35"/>
+      <c r="N792" s="9"/>
+      <c r="O792" s="33"/>
+      <c r="P792" s="29"/>
+    </row>
+    <row r="793" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B793" s="35"/>
+      <c r="N793" s="9"/>
+      <c r="O793" s="33"/>
+      <c r="P793" s="29"/>
+    </row>
+    <row r="794" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B794" s="35"/>
+      <c r="N794" s="9"/>
+      <c r="O794" s="33"/>
+      <c r="P794" s="29"/>
+    </row>
+    <row r="795" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B795" s="35"/>
+      <c r="N795" s="9"/>
+      <c r="O795" s="33"/>
+      <c r="P795" s="29"/>
+    </row>
+    <row r="796" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B796" s="35"/>
+      <c r="N796" s="9"/>
+      <c r="O796" s="33"/>
+      <c r="P796" s="29"/>
+    </row>
+    <row r="797" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B797" s="35"/>
+      <c r="N797" s="9"/>
+      <c r="O797" s="33"/>
+      <c r="P797" s="29"/>
+    </row>
+    <row r="798" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B798" s="35"/>
+      <c r="N798" s="9"/>
+      <c r="O798" s="33"/>
+      <c r="P798" s="29"/>
+    </row>
+    <row r="799" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B799" s="35"/>
+      <c r="N799" s="9"/>
+      <c r="O799" s="33"/>
+      <c r="P799" s="29"/>
+    </row>
+    <row r="800" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B800" s="35"/>
+      <c r="N800" s="9"/>
+      <c r="O800" s="33"/>
+      <c r="P800" s="29"/>
+    </row>
+    <row r="801" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B801" s="35"/>
+      <c r="O801" s="33"/>
+      <c r="P801" s="29"/>
+    </row>
+    <row r="802" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B802" s="35"/>
+      <c r="O802" s="33"/>
+      <c r="P802" s="29"/>
+    </row>
+    <row r="803" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B803" s="35"/>
+      <c r="O803" s="33"/>
+      <c r="P803" s="29"/>
+    </row>
+    <row r="804" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B804" s="35"/>
+      <c r="O804" s="33"/>
+      <c r="P804" s="29"/>
+    </row>
+    <row r="805" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B805" s="35"/>
+      <c r="O805" s="33"/>
+      <c r="P805" s="29"/>
+    </row>
+    <row r="806" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B806" s="35"/>
+      <c r="O806" s="33"/>
+      <c r="P806" s="29"/>
+    </row>
+    <row r="807" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B807" s="35"/>
+      <c r="O807" s="33"/>
+      <c r="P807" s="29"/>
+    </row>
+    <row r="808" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B808" s="35"/>
+      <c r="O808" s="33"/>
+      <c r="P808" s="29"/>
+    </row>
+    <row r="809" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B809" s="35"/>
+      <c r="O809" s="33"/>
+      <c r="P809" s="29"/>
+    </row>
+    <row r="810" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B810" s="35"/>
+      <c r="O810" s="33"/>
+      <c r="P810" s="29"/>
+    </row>
+    <row r="811" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B811" s="35"/>
+      <c r="O811" s="33"/>
+      <c r="P811" s="29"/>
+    </row>
+    <row r="812" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B812" s="35"/>
+      <c r="O812" s="33"/>
+      <c r="P812" s="29"/>
+    </row>
+    <row r="813" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B813" s="35"/>
+      <c r="O813" s="33"/>
+      <c r="P813" s="29"/>
+    </row>
+    <row r="814" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B814" s="35"/>
+      <c r="O814" s="33"/>
+      <c r="P814" s="29"/>
+    </row>
+    <row r="815" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B815" s="35"/>
+      <c r="O815" s="33"/>
+      <c r="P815" s="29"/>
+    </row>
+    <row r="816" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B816" s="35"/>
+      <c r="O816" s="33"/>
+      <c r="P816" s="29"/>
+    </row>
+    <row r="817" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B817" s="35"/>
+      <c r="O817" s="33"/>
+      <c r="P817" s="29"/>
+    </row>
+    <row r="818" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B818" s="35"/>
+      <c r="O818" s="33"/>
+      <c r="P818" s="29"/>
+    </row>
+    <row r="819" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B819" s="35"/>
+      <c r="O819" s="33"/>
+      <c r="P819" s="29"/>
+    </row>
+    <row r="820" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B820" s="35"/>
+      <c r="O820" s="33"/>
+      <c r="P820" s="29"/>
+    </row>
+    <row r="821" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B821" s="35"/>
+      <c r="O821" s="33"/>
+      <c r="P821" s="29"/>
+    </row>
+    <row r="822" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B822" s="35"/>
+      <c r="O822" s="33"/>
+      <c r="P822" s="29"/>
+    </row>
+    <row r="823" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B823" s="35"/>
+      <c r="O823" s="33"/>
+      <c r="P823" s="29"/>
+    </row>
+    <row r="824" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B824" s="35"/>
+      <c r="O824" s="33"/>
+      <c r="P824" s="29"/>
+    </row>
+    <row r="825" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B825" s="35"/>
+      <c r="O825" s="33"/>
+      <c r="P825" s="29"/>
+    </row>
+    <row r="826" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B826" s="35"/>
+      <c r="O826" s="33"/>
+      <c r="P826" s="29"/>
+    </row>
+    <row r="827" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B827" s="35"/>
+      <c r="O827" s="33"/>
+      <c r="P827" s="29"/>
+    </row>
+    <row r="828" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B828" s="35"/>
+      <c r="O828" s="33"/>
+      <c r="P828" s="29"/>
+    </row>
+    <row r="829" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B829" s="35"/>
+      <c r="O829" s="33"/>
+      <c r="P829" s="29"/>
+    </row>
+    <row r="830" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B830" s="35"/>
+      <c r="O830" s="33"/>
+      <c r="P830" s="29"/>
+    </row>
+    <row r="831" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B831" s="35"/>
+      <c r="O831" s="33"/>
+      <c r="P831" s="29"/>
+    </row>
+    <row r="832" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B832" s="35"/>
+      <c r="O832" s="33"/>
+      <c r="P832" s="29"/>
+    </row>
+    <row r="833" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B833" s="35"/>
+      <c r="O833" s="33"/>
+      <c r="P833" s="29"/>
+    </row>
+    <row r="834" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B834" s="35"/>
+      <c r="O834" s="33"/>
+      <c r="P834" s="29"/>
+    </row>
+    <row r="835" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B835" s="35"/>
+      <c r="O835" s="33"/>
+      <c r="P835" s="29"/>
+    </row>
+    <row r="836" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B836" s="35"/>
+      <c r="O836" s="33"/>
+      <c r="P836" s="29"/>
+    </row>
+    <row r="837" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B837" s="35"/>
+      <c r="O837" s="33"/>
+      <c r="P837" s="29"/>
+    </row>
+    <row r="838" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B838" s="35"/>
+      <c r="O838" s="33"/>
+      <c r="P838" s="29"/>
+    </row>
+    <row r="839" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B839" s="35"/>
+      <c r="O839" s="33"/>
+      <c r="P839" s="29"/>
+    </row>
+    <row r="840" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B840" s="35"/>
+      <c r="O840" s="33"/>
+      <c r="P840" s="29"/>
+    </row>
+    <row r="841" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B841" s="35"/>
+      <c r="O841" s="33"/>
+      <c r="P841" s="29"/>
+    </row>
+    <row r="842" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B842" s="35"/>
+      <c r="O842" s="33"/>
+      <c r="P842" s="29"/>
+    </row>
+    <row r="843" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B843" s="35"/>
+      <c r="O843" s="33"/>
+      <c r="P843" s="29"/>
+    </row>
+    <row r="844" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B844" s="35"/>
+      <c r="O844" s="33"/>
+      <c r="P844" s="29"/>
+    </row>
+    <row r="845" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B845" s="35"/>
+      <c r="O845" s="33"/>
+      <c r="P845" s="29"/>
+    </row>
+    <row r="846" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B846" s="35"/>
+      <c r="O846" s="33"/>
+      <c r="P846" s="29"/>
+    </row>
+    <row r="847" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B847" s="35"/>
+      <c r="O847" s="33"/>
+      <c r="P847" s="29"/>
+    </row>
+    <row r="848" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B848" s="35"/>
+      <c r="O848" s="33"/>
+      <c r="P848" s="29"/>
+    </row>
+    <row r="849" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B849" s="35"/>
+      <c r="O849" s="33"/>
+      <c r="P849" s="29"/>
+    </row>
+    <row r="850" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B850" s="35"/>
+      <c r="O850" s="33"/>
+      <c r="P850" s="29"/>
+    </row>
+    <row r="851" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B851" s="35"/>
+      <c r="O851" s="33"/>
+      <c r="P851" s="29"/>
+    </row>
+    <row r="852" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B852" s="35"/>
+      <c r="O852" s="33"/>
+      <c r="P852" s="29"/>
+    </row>
+    <row r="853" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B853" s="35"/>
+      <c r="O853" s="33"/>
+      <c r="P853" s="29"/>
+    </row>
+    <row r="854" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B854" s="35"/>
+      <c r="O854" s="33"/>
+      <c r="P854" s="29"/>
+    </row>
+    <row r="855" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B855" s="35"/>
+      <c r="O855" s="33"/>
+      <c r="P855" s="29"/>
+    </row>
+    <row r="856" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B856" s="35"/>
+      <c r="O856" s="33"/>
+      <c r="P856" s="29"/>
+    </row>
+    <row r="857" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B857" s="35"/>
+      <c r="O857" s="33"/>
+      <c r="P857" s="29"/>
+    </row>
+    <row r="858" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B858" s="35"/>
+      <c r="O858" s="33"/>
+      <c r="P858" s="29"/>
+    </row>
+    <row r="859" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B859" s="35"/>
+      <c r="O859" s="33"/>
+      <c r="P859" s="29"/>
+    </row>
+    <row r="860" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B860" s="35"/>
+      <c r="O860" s="33"/>
+      <c r="P860" s="29"/>
+    </row>
+    <row r="861" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B861" s="35"/>
+      <c r="O861" s="33"/>
+      <c r="P861" s="29"/>
+    </row>
+    <row r="862" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B862" s="35"/>
+      <c r="O862" s="33"/>
+      <c r="P862" s="29"/>
+    </row>
+    <row r="863" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B863" s="35"/>
+      <c r="O863" s="33"/>
+      <c r="P863" s="29"/>
+    </row>
+    <row r="864" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B864" s="35"/>
+      <c r="O864" s="33"/>
+      <c r="P864" s="29"/>
+    </row>
+    <row r="865" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B865" s="35"/>
+      <c r="O865" s="33"/>
+      <c r="P865" s="29"/>
+    </row>
+    <row r="866" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B866" s="35"/>
+      <c r="O866" s="33"/>
+      <c r="P866" s="29"/>
+    </row>
+    <row r="867" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B867" s="35"/>
+      <c r="O867" s="33"/>
+      <c r="P867" s="29"/>
+    </row>
+    <row r="868" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B868" s="35"/>
+      <c r="O868" s="33"/>
+      <c r="P868" s="29"/>
+    </row>
+    <row r="869" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B869" s="35"/>
+      <c r="O869" s="33"/>
+      <c r="P869" s="29"/>
+    </row>
+    <row r="870" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B870" s="35"/>
+      <c r="O870" s="33"/>
+      <c r="P870" s="29"/>
+    </row>
+    <row r="871" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B871" s="35"/>
+      <c r="O871" s="33"/>
+      <c r="P871" s="29"/>
+    </row>
+    <row r="872" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B872" s="35"/>
+      <c r="O872" s="33"/>
+      <c r="P872" s="29"/>
+    </row>
+    <row r="873" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B873" s="35"/>
+      <c r="O873" s="33"/>
+      <c r="P873" s="29"/>
+    </row>
+    <row r="874" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B874" s="35"/>
+      <c r="O874" s="33"/>
+      <c r="P874" s="29"/>
+    </row>
+    <row r="875" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B875" s="35"/>
+      <c r="O875" s="33"/>
+      <c r="P875" s="29"/>
+    </row>
+    <row r="876" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B876" s="35"/>
+      <c r="O876" s="33"/>
+      <c r="P876" s="29"/>
+    </row>
+    <row r="877" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B877" s="35"/>
+      <c r="O877" s="33"/>
+      <c r="P877" s="29"/>
+    </row>
+    <row r="878" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B878" s="35"/>
+      <c r="O878" s="33"/>
+      <c r="P878" s="29"/>
+    </row>
+    <row r="879" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B879" s="35"/>
+      <c r="O879" s="33"/>
+      <c r="P879" s="29"/>
+    </row>
+    <row r="880" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B880" s="35"/>
+      <c r="O880" s="33"/>
+      <c r="P880" s="29"/>
+    </row>
+    <row r="881" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B881" s="35"/>
+      <c r="O881" s="33"/>
+      <c r="P881" s="29"/>
+    </row>
+    <row r="882" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B882" s="35"/>
+      <c r="O882" s="33"/>
+      <c r="P882" s="29"/>
+    </row>
+    <row r="883" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B883" s="35"/>
+      <c r="O883" s="33"/>
+      <c r="P883" s="29"/>
+    </row>
+    <row r="884" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B884" s="35"/>
+      <c r="O884" s="33"/>
+      <c r="P884" s="29"/>
+    </row>
+    <row r="885" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B885" s="35"/>
+      <c r="O885" s="33"/>
+      <c r="P885" s="29"/>
+    </row>
+    <row r="886" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B886" s="35"/>
+      <c r="O886" s="33"/>
+      <c r="P886" s="29"/>
+    </row>
+    <row r="887" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B887" s="35"/>
+      <c r="O887" s="33"/>
+      <c r="P887" s="29"/>
+    </row>
+    <row r="888" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B888" s="35"/>
+      <c r="O888" s="33"/>
+      <c r="P888" s="29"/>
+    </row>
+    <row r="889" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B889" s="35"/>
+      <c r="O889" s="33"/>
+      <c r="P889" s="29"/>
+    </row>
+    <row r="890" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B890" s="35"/>
+      <c r="O890" s="33"/>
+      <c r="P890" s="29"/>
+    </row>
+    <row r="891" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B891" s="35"/>
+      <c r="O891" s="33"/>
+      <c r="P891" s="29"/>
+    </row>
+    <row r="892" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B892" s="35"/>
+      <c r="O892" s="33"/>
+      <c r="P892" s="29"/>
+    </row>
+    <row r="893" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B893" s="35"/>
+      <c r="O893" s="33"/>
+      <c r="P893" s="29"/>
+    </row>
+    <row r="894" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B894" s="35"/>
+      <c r="O894" s="33"/>
+      <c r="P894" s="29"/>
+    </row>
+    <row r="895" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B895" s="35"/>
+      <c r="O895" s="33"/>
+      <c r="P895" s="29"/>
+    </row>
+    <row r="896" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B896" s="35"/>
+      <c r="O896" s="33"/>
+      <c r="P896" s="29"/>
+    </row>
+    <row r="897" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B897" s="35"/>
+      <c r="O897" s="33"/>
+      <c r="P897" s="29"/>
+    </row>
+    <row r="898" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B898" s="35"/>
+      <c r="O898" s="33"/>
+      <c r="P898" s="29"/>
+    </row>
+    <row r="899" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B899" s="35"/>
+      <c r="O899" s="33"/>
+      <c r="P899" s="29"/>
+    </row>
+    <row r="900" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B900" s="35"/>
+      <c r="O900" s="33"/>
+      <c r="P900" s="29"/>
+    </row>
+    <row r="901" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B901" s="35"/>
+      <c r="O901" s="33"/>
+      <c r="P901" s="29"/>
+    </row>
+    <row r="902" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B902" s="35"/>
+      <c r="O902" s="33"/>
+      <c r="P902" s="29"/>
+    </row>
+    <row r="903" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B903" s="35"/>
+      <c r="O903" s="33"/>
+      <c r="P903" s="29"/>
+    </row>
+    <row r="904" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B904" s="35"/>
+      <c r="O904" s="33"/>
+      <c r="P904" s="29"/>
+    </row>
+    <row r="905" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B905" s="35"/>
+      <c r="O905" s="33"/>
+      <c r="P905" s="29"/>
+    </row>
+    <row r="906" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B906" s="35"/>
+      <c r="O906" s="33"/>
+      <c r="P906" s="29"/>
+    </row>
+    <row r="907" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B907" s="35"/>
+      <c r="O907" s="33"/>
+      <c r="P907" s="29"/>
+    </row>
+    <row r="908" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B908" s="35"/>
+      <c r="O908" s="33"/>
+      <c r="P908" s="29"/>
+    </row>
+    <row r="909" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B909" s="35"/>
+      <c r="O909" s="33"/>
+      <c r="P909" s="29"/>
+    </row>
+    <row r="910" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B910" s="35"/>
+      <c r="O910" s="33"/>
+      <c r="P910" s="29"/>
+    </row>
+    <row r="911" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B911" s="35"/>
+      <c r="O911" s="33"/>
+      <c r="P911" s="29"/>
+    </row>
+    <row r="912" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B912" s="35"/>
+      <c r="O912" s="33"/>
+      <c r="P912" s="29"/>
+    </row>
+    <row r="913" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B913" s="35"/>
+      <c r="O913" s="33"/>
+      <c r="P913" s="29"/>
+    </row>
+    <row r="914" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B914" s="35"/>
+      <c r="O914" s="33"/>
+      <c r="P914" s="29"/>
+    </row>
+    <row r="915" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B915" s="35"/>
+      <c r="O915" s="33"/>
+      <c r="P915" s="29"/>
+    </row>
+    <row r="916" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B916" s="35"/>
+      <c r="O916" s="33"/>
+      <c r="P916" s="29"/>
+    </row>
+    <row r="917" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B917" s="35"/>
+      <c r="O917" s="33"/>
+      <c r="P917" s="29"/>
+    </row>
+    <row r="918" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B918" s="35"/>
+      <c r="O918" s="33"/>
+      <c r="P918" s="29"/>
+    </row>
+    <row r="919" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B919" s="35"/>
+      <c r="O919" s="33"/>
+      <c r="P919" s="29"/>
+    </row>
+    <row r="920" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B920" s="35"/>
+      <c r="O920" s="33"/>
+      <c r="P920" s="29"/>
+    </row>
+    <row r="921" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B921" s="35"/>
+      <c r="O921" s="33"/>
+      <c r="P921" s="29"/>
+    </row>
+    <row r="922" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B922" s="35"/>
+      <c r="O922" s="33"/>
+      <c r="P922" s="29"/>
+    </row>
+    <row r="923" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B923" s="35"/>
+      <c r="O923" s="33"/>
+      <c r="P923" s="29"/>
+    </row>
+    <row r="924" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B924" s="35"/>
+      <c r="O924" s="33"/>
+      <c r="P924" s="29"/>
+    </row>
+    <row r="925" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B925" s="35"/>
+      <c r="O925" s="33"/>
+      <c r="P925" s="29"/>
+    </row>
+    <row r="926" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B926" s="35"/>
+      <c r="O926" s="33"/>
+      <c r="P926" s="29"/>
+    </row>
+    <row r="927" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B927" s="35"/>
+      <c r="O927" s="33"/>
+      <c r="P927" s="29"/>
+    </row>
+    <row r="928" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B928" s="35"/>
+      <c r="O928" s="33"/>
+      <c r="P928" s="29"/>
+    </row>
+    <row r="929" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B929" s="35"/>
+      <c r="O929" s="33"/>
+      <c r="P929" s="29"/>
+    </row>
+    <row r="930" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B930" s="35"/>
+      <c r="O930" s="33"/>
+      <c r="P930" s="29"/>
+    </row>
+    <row r="931" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B931" s="35"/>
+      <c r="O931" s="33"/>
+      <c r="P931" s="29"/>
+    </row>
+    <row r="932" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B932" s="35"/>
+      <c r="O932" s="33"/>
+      <c r="P932" s="29"/>
+    </row>
+    <row r="933" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B933" s="35"/>
+      <c r="O933" s="33"/>
+      <c r="P933" s="29"/>
+    </row>
+    <row r="934" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B934" s="35"/>
+      <c r="O934" s="33"/>
+      <c r="P934" s="29"/>
+    </row>
+    <row r="935" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B935" s="35"/>
+      <c r="O935" s="33"/>
+      <c r="P935" s="29"/>
+    </row>
+    <row r="936" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B936" s="35"/>
+      <c r="O936" s="33"/>
+      <c r="P936" s="29"/>
+    </row>
+    <row r="937" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B937" s="35"/>
+      <c r="O937" s="33"/>
+      <c r="P937" s="29"/>
+    </row>
+    <row r="938" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B938" s="35"/>
+      <c r="O938" s="33"/>
+      <c r="P938" s="29"/>
+    </row>
+    <row r="939" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B939" s="35"/>
+      <c r="O939" s="33"/>
+      <c r="P939" s="29"/>
+    </row>
+    <row r="940" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B940" s="35"/>
+      <c r="O940" s="33"/>
+      <c r="P940" s="29"/>
+    </row>
+    <row r="941" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B941" s="35"/>
+      <c r="O941" s="33"/>
+      <c r="P941" s="29"/>
+    </row>
+    <row r="942" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B942" s="35"/>
+      <c r="O942" s="33"/>
+      <c r="P942" s="29"/>
+    </row>
+    <row r="943" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B943" s="35"/>
+      <c r="O943" s="33"/>
+      <c r="P943" s="29"/>
+    </row>
+    <row r="944" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B944" s="35"/>
+      <c r="O944" s="33"/>
+      <c r="P944" s="29"/>
+    </row>
+    <row r="945" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B945" s="35"/>
+      <c r="O945" s="33"/>
+      <c r="P945" s="29"/>
+    </row>
+    <row r="946" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B946" s="35"/>
+      <c r="O946" s="33"/>
+      <c r="P946" s="29"/>
+    </row>
+    <row r="947" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B947" s="35"/>
+      <c r="O947" s="33"/>
+      <c r="P947" s="29"/>
+    </row>
+    <row r="948" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B948" s="35"/>
+      <c r="O948" s="33"/>
+      <c r="P948" s="29"/>
+    </row>
+    <row r="949" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B949" s="35"/>
+      <c r="O949" s="33"/>
+      <c r="P949" s="29"/>
+    </row>
+    <row r="950" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B950" s="35"/>
+      <c r="O950" s="33"/>
+      <c r="P950" s="29"/>
+    </row>
+    <row r="951" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B951" s="35"/>
+      <c r="O951" s="33"/>
+      <c r="P951" s="29"/>
+    </row>
+    <row r="952" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B952" s="35"/>
+      <c r="O952" s="33"/>
+      <c r="P952" s="29"/>
+    </row>
+    <row r="953" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B953" s="35"/>
+      <c r="O953" s="33"/>
+      <c r="P953" s="29"/>
+    </row>
+    <row r="954" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B954" s="35"/>
+      <c r="O954" s="33"/>
+      <c r="P954" s="29"/>
+    </row>
+    <row r="955" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B955" s="35"/>
+      <c r="O955" s="33"/>
+      <c r="P955" s="29"/>
+    </row>
+    <row r="956" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B956" s="35"/>
+      <c r="O956" s="33"/>
+      <c r="P956" s="29"/>
+    </row>
+    <row r="957" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B957" s="35"/>
+      <c r="O957" s="33"/>
+      <c r="P957" s="29"/>
+    </row>
+    <row r="958" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B958" s="35"/>
+      <c r="O958" s="33"/>
+      <c r="P958" s="29"/>
+    </row>
+    <row r="959" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B959" s="35"/>
+      <c r="O959" s="33"/>
+      <c r="P959" s="29"/>
+    </row>
+    <row r="960" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B960" s="35"/>
+      <c r="O960" s="33"/>
+      <c r="P960" s="29"/>
+    </row>
+    <row r="961" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B961" s="35"/>
+      <c r="O961" s="33"/>
+      <c r="P961" s="29"/>
+    </row>
+    <row r="962" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B962" s="35"/>
+      <c r="O962" s="33"/>
+      <c r="P962" s="29"/>
+    </row>
+    <row r="963" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B963" s="35"/>
+      <c r="O963" s="33"/>
+      <c r="P963" s="29"/>
+    </row>
+    <row r="964" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B964" s="35"/>
+      <c r="O964" s="33"/>
+      <c r="P964" s="29"/>
+    </row>
+    <row r="965" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B965" s="35"/>
+      <c r="O965" s="33"/>
+      <c r="P965" s="29"/>
+    </row>
+    <row r="966" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B966" s="35"/>
+      <c r="O966" s="33"/>
+      <c r="P966" s="29"/>
+    </row>
+    <row r="967" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B967" s="35"/>
+      <c r="O967" s="33"/>
+      <c r="P967" s="29"/>
+    </row>
+    <row r="968" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B968" s="35"/>
+      <c r="O968" s="33"/>
+      <c r="P968" s="29"/>
+    </row>
+    <row r="969" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B969" s="35"/>
+      <c r="O969" s="33"/>
+      <c r="P969" s="29"/>
+    </row>
+    <row r="970" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B970" s="35"/>
+      <c r="O970" s="33"/>
+      <c r="P970" s="29"/>
+    </row>
+    <row r="971" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B971" s="35"/>
+      <c r="O971" s="33"/>
+      <c r="P971" s="29"/>
+    </row>
+    <row r="972" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B972" s="35"/>
+      <c r="O972" s="33"/>
+      <c r="P972" s="29"/>
+    </row>
+    <row r="973" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B973" s="35"/>
+      <c r="O973" s="33"/>
+      <c r="P973" s="29"/>
+    </row>
+    <row r="974" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B974" s="35"/>
+      <c r="O974" s="33"/>
+      <c r="P974" s="29"/>
+    </row>
+    <row r="975" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B975" s="35"/>
+      <c r="O975" s="33"/>
+      <c r="P975" s="29"/>
+    </row>
+    <row r="976" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B976" s="35"/>
+      <c r="O976" s="33"/>
+      <c r="P976" s="29"/>
+    </row>
+    <row r="977" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B977" s="35"/>
+      <c r="O977" s="33"/>
+      <c r="P977" s="29"/>
+    </row>
+    <row r="978" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B978" s="35"/>
+      <c r="O978" s="33"/>
+      <c r="P978" s="29"/>
+    </row>
+    <row r="979" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B979" s="35"/>
+      <c r="O979" s="33"/>
+      <c r="P979" s="29"/>
+    </row>
+    <row r="980" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B980" s="35"/>
+      <c r="O980" s="33"/>
+      <c r="P980" s="29"/>
+    </row>
+    <row r="981" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B981" s="35"/>
+      <c r="O981" s="33"/>
+      <c r="P981" s="29"/>
+    </row>
+    <row r="982" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B982" s="35"/>
+      <c r="O982" s="33"/>
+      <c r="P982" s="29"/>
+    </row>
+    <row r="983" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B983" s="35"/>
+      <c r="O983" s="33"/>
+      <c r="P983" s="29"/>
+    </row>
+    <row r="984" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B984" s="35"/>
+      <c r="O984" s="33"/>
+      <c r="P984" s="29"/>
+    </row>
+    <row r="985" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B985" s="35"/>
+      <c r="O985" s="33"/>
+      <c r="P985" s="29"/>
+    </row>
+    <row r="986" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B986" s="35"/>
+      <c r="O986" s="33"/>
+      <c r="P986" s="29"/>
+    </row>
+    <row r="987" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B987" s="35"/>
+      <c r="O987" s="33"/>
+      <c r="P987" s="29"/>
+    </row>
+    <row r="988" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B988" s="35"/>
+      <c r="O988" s="33"/>
+      <c r="P988" s="29"/>
+    </row>
+    <row r="989" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B989" s="35"/>
+      <c r="O989" s="33"/>
+      <c r="P989" s="29"/>
+    </row>
+    <row r="990" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B990" s="35"/>
+      <c r="O990" s="33"/>
+      <c r="P990" s="29"/>
+    </row>
+    <row r="991" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B991" s="35"/>
+      <c r="O991" s="33"/>
+      <c r="P991" s="29"/>
+    </row>
+    <row r="992" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B992" s="35"/>
+      <c r="O992" s="33"/>
+      <c r="P992" s="29"/>
+    </row>
+    <row r="993" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B993" s="35"/>
+      <c r="O993" s="33"/>
+      <c r="P993" s="29"/>
+    </row>
+    <row r="994" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B994" s="35"/>
+      <c r="O994" s="33"/>
+      <c r="P994" s="29"/>
+    </row>
+    <row r="995" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B995" s="35"/>
+      <c r="O995" s="33"/>
+      <c r="P995" s="29"/>
+    </row>
+    <row r="996" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B996" s="35"/>
+      <c r="O996" s="33"/>
+      <c r="P996" s="29"/>
+    </row>
+    <row r="997" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B997" s="35"/>
+      <c r="O997" s="33"/>
+      <c r="P997" s="29"/>
+    </row>
+    <row r="998" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B998" s="35"/>
+      <c r="O998" s="33"/>
+      <c r="P998" s="29"/>
+    </row>
+    <row r="999" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B999" s="35"/>
+      <c r="O999" s="33"/>
+      <c r="P999" s="29"/>
+    </row>
+    <row r="1000" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1000" s="35"/>
+      <c r="O1000" s="33"/>
+      <c r="P1000" s="29"/>
+    </row>
+    <row r="1001" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1001" s="35"/>
+      <c r="O1001" s="33"/>
+      <c r="P1001" s="29"/>
+    </row>
+    <row r="1002" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1002" s="35"/>
+      <c r="O1002" s="33"/>
+      <c r="P1002" s="29"/>
+    </row>
+    <row r="1003" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1003" s="35"/>
+      <c r="O1003" s="33"/>
+      <c r="P1003" s="29"/>
+    </row>
+    <row r="1004" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1004" s="35"/>
+      <c r="O1004" s="33"/>
+      <c r="P1004" s="29"/>
+    </row>
+    <row r="1005" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1005" s="35"/>
+      <c r="O1005" s="33"/>
+      <c r="P1005" s="29"/>
+    </row>
+    <row r="1006" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1006" s="35"/>
+      <c r="O1006" s="33"/>
+      <c r="P1006" s="29"/>
+    </row>
+    <row r="1007" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1007" s="35"/>
+      <c r="O1007" s="33"/>
+      <c r="P1007" s="29"/>
+    </row>
+    <row r="1008" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1008" s="35"/>
+      <c r="O1008" s="33"/>
+      <c r="P1008" s="29"/>
+    </row>
+    <row r="1009" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1009" s="35"/>
+      <c r="O1009" s="33"/>
+      <c r="P1009" s="29"/>
+    </row>
+    <row r="1010" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1010" s="35"/>
+      <c r="O1010" s="33"/>
+      <c r="P1010" s="29"/>
+    </row>
+    <row r="1011" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1011" s="35"/>
+      <c r="O1011" s="33"/>
+      <c r="P1011" s="29"/>
+    </row>
+    <row r="1012" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1012" s="35"/>
+      <c r="O1012" s="33"/>
+      <c r="P1012" s="29"/>
+    </row>
+    <row r="1013" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1013" s="35"/>
+      <c r="O1013" s="33"/>
+      <c r="P1013" s="29"/>
+    </row>
+    <row r="1014" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1014" s="35"/>
+      <c r="O1014" s="33"/>
+      <c r="P1014" s="29"/>
+    </row>
+    <row r="1015" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1015" s="35"/>
+      <c r="O1015" s="33"/>
+      <c r="P1015" s="29"/>
+    </row>
+    <row r="1016" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1016" s="35"/>
+      <c r="O1016" s="33"/>
+      <c r="P1016" s="29"/>
+    </row>
+    <row r="1017" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1017" s="35"/>
+      <c r="O1017" s="33"/>
+      <c r="P1017" s="29"/>
+    </row>
+    <row r="1018" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1018" s="35"/>
+      <c r="O1018" s="33"/>
+      <c r="P1018" s="29"/>
+    </row>
+    <row r="1019" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1019" s="35"/>
+      <c r="O1019" s="33"/>
+      <c r="P1019" s="29"/>
+    </row>
+    <row r="1020" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1020" s="35"/>
+      <c r="O1020" s="33"/>
+      <c r="P1020" s="29"/>
+    </row>
+    <row r="1021" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1021" s="35"/>
+      <c r="O1021" s="33"/>
+      <c r="P1021" s="29"/>
+    </row>
+    <row r="1022" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1022" s="35"/>
+      <c r="O1022" s="33"/>
+      <c r="P1022" s="29"/>
+    </row>
+    <row r="1023" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1023" s="35"/>
+      <c r="O1023" s="33"/>
+      <c r="P1023" s="29"/>
+    </row>
+    <row r="1024" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1024" s="35"/>
+      <c r="O1024" s="33"/>
+      <c r="P1024" s="29"/>
+    </row>
+    <row r="1025" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1025" s="35"/>
+      <c r="O1025" s="33"/>
+      <c r="P1025" s="29"/>
+    </row>
+    <row r="1026" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1026" s="35"/>
+      <c r="O1026" s="33"/>
+      <c r="P1026" s="29"/>
+    </row>
+    <row r="1027" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1027" s="35"/>
+      <c r="O1027" s="33"/>
+      <c r="P1027" s="29"/>
+    </row>
+    <row r="1028" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1028" s="35"/>
+      <c r="O1028" s="33"/>
+      <c r="P1028" s="29"/>
+    </row>
+    <row r="1029" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1029" s="35"/>
+      <c r="O1029" s="33"/>
+      <c r="P1029" s="29"/>
+    </row>
+    <row r="1030" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1030" s="35"/>
+      <c r="O1030" s="33"/>
+      <c r="P1030" s="29"/>
+    </row>
+    <row r="1031" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1031" s="35"/>
+      <c r="O1031" s="33"/>
+      <c r="P1031" s="29"/>
+    </row>
+    <row r="1032" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1032" s="35"/>
+      <c r="O1032" s="33"/>
+      <c r="P1032" s="29"/>
+    </row>
+    <row r="1033" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1033" s="35"/>
+      <c r="O1033" s="33"/>
+      <c r="P1033" s="29"/>
+    </row>
+    <row r="1034" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1034" s="35"/>
+      <c r="O1034" s="33"/>
+      <c r="P1034" s="29"/>
+    </row>
+    <row r="1035" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1035" s="35"/>
+      <c r="O1035" s="33"/>
+      <c r="P1035" s="29"/>
+    </row>
+    <row r="1036" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1036" s="35"/>
+      <c r="O1036" s="33"/>
+      <c r="P1036" s="29"/>
+    </row>
+    <row r="1037" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1037" s="35"/>
+      <c r="O1037" s="33"/>
+      <c r="P1037" s="29"/>
+    </row>
+    <row r="1038" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1038" s="35"/>
+      <c r="O1038" s="33"/>
+      <c r="P1038" s="29"/>
+    </row>
+    <row r="1039" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1039" s="35"/>
+      <c r="O1039" s="33"/>
+      <c r="P1039" s="29"/>
+    </row>
+    <row r="1040" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1040" s="35"/>
+      <c r="O1040" s="33"/>
+      <c r="P1040" s="29"/>
+    </row>
+    <row r="1041" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1041" s="35"/>
+      <c r="O1041" s="33"/>
+      <c r="P1041" s="29"/>
+    </row>
+    <row r="1042" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1042" s="35"/>
+      <c r="O1042" s="33"/>
+      <c r="P1042" s="29"/>
+    </row>
+    <row r="1043" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1043" s="35"/>
+      <c r="O1043" s="33"/>
+      <c r="P1043" s="29"/>
+    </row>
+    <row r="1044" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1044" s="35"/>
+      <c r="O1044" s="33"/>
+      <c r="P1044" s="29"/>
+    </row>
+    <row r="1045" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1045" s="35"/>
+      <c r="O1045" s="33"/>
+      <c r="P1045" s="29"/>
+    </row>
+    <row r="1046" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1046" s="35"/>
+      <c r="O1046" s="33"/>
+      <c r="P1046" s="29"/>
+    </row>
+    <row r="1047" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1047" s="35"/>
+      <c r="O1047" s="33"/>
+      <c r="P1047" s="29"/>
+    </row>
+    <row r="1048" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1048" s="35"/>
+      <c r="O1048" s="33"/>
+      <c r="P1048" s="29"/>
+    </row>
+    <row r="1049" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1049" s="35"/>
+      <c r="O1049" s="33"/>
+      <c r="P1049" s="29"/>
+    </row>
+    <row r="1050" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1050" s="35"/>
+      <c r="O1050" s="33"/>
+      <c r="P1050" s="29"/>
+    </row>
+    <row r="1051" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1051" s="35"/>
+      <c r="O1051" s="33"/>
+      <c r="P1051" s="29"/>
+    </row>
+    <row r="1052" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1052" s="35"/>
+      <c r="O1052" s="33"/>
+      <c r="P1052" s="29"/>
+    </row>
+    <row r="1053" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1053" s="35"/>
+      <c r="O1053" s="33"/>
+      <c r="P1053" s="29"/>
+    </row>
+    <row r="1054" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1054" s="35"/>
+      <c r="O1054" s="33"/>
+      <c r="P1054" s="29"/>
+    </row>
+    <row r="1055" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1055" s="35"/>
+      <c r="O1055" s="33"/>
+      <c r="P1055" s="29"/>
+    </row>
+    <row r="1056" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1056" s="35"/>
+      <c r="O1056" s="33"/>
+      <c r="P1056" s="29"/>
+    </row>
+    <row r="1057" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1057" s="35"/>
+      <c r="O1057" s="33"/>
+      <c r="P1057" s="29"/>
+    </row>
+    <row r="1058" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1058" s="35"/>
+      <c r="O1058" s="33"/>
+      <c r="P1058" s="29"/>
+    </row>
+    <row r="1059" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1059" s="35"/>
+      <c r="O1059" s="33"/>
+      <c r="P1059" s="29"/>
+    </row>
+    <row r="1060" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1060" s="35"/>
+      <c r="O1060" s="33"/>
+      <c r="P1060" s="29"/>
+    </row>
+    <row r="1061" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1061" s="35"/>
+      <c r="O1061" s="33"/>
+      <c r="P1061" s="29"/>
+    </row>
+    <row r="1062" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1062" s="35"/>
+      <c r="O1062" s="33"/>
+      <c r="P1062" s="29"/>
+    </row>
+    <row r="1063" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1063" s="35"/>
+      <c r="O1063" s="33"/>
+      <c r="P1063" s="29"/>
+    </row>
+    <row r="1064" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1064" s="35"/>
+      <c r="O1064" s="33"/>
+      <c r="P1064" s="29"/>
+    </row>
+    <row r="1065" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1065" s="35"/>
+      <c r="O1065" s="33"/>
+      <c r="P1065" s="29"/>
+    </row>
+    <row r="1066" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1066" s="35"/>
+      <c r="O1066" s="33"/>
+      <c r="P1066" s="29"/>
+    </row>
+    <row r="1067" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1067" s="35"/>
+      <c r="O1067" s="33"/>
+      <c r="P1067" s="29"/>
+    </row>
+    <row r="1068" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1068" s="35"/>
+      <c r="O1068" s="33"/>
+      <c r="P1068" s="29"/>
+    </row>
+    <row r="1069" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1069" s="35"/>
+      <c r="O1069" s="33"/>
+      <c r="P1069" s="29"/>
+    </row>
+    <row r="1070" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1070" s="35"/>
+      <c r="O1070" s="33"/>
+      <c r="P1070" s="29"/>
+    </row>
+    <row r="1071" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1071" s="35"/>
+      <c r="O1071" s="33"/>
+      <c r="P1071" s="29"/>
+    </row>
+    <row r="1072" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1072" s="35"/>
+      <c r="O1072" s="33"/>
+      <c r="P1072" s="29"/>
+    </row>
+    <row r="1073" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1073" s="35"/>
+      <c r="O1073" s="33"/>
+      <c r="P1073" s="29"/>
+    </row>
+    <row r="1074" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1074" s="35"/>
+      <c r="O1074" s="33"/>
+      <c r="P1074" s="29"/>
+    </row>
+    <row r="1075" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1075" s="35"/>
+      <c r="O1075" s="33"/>
+      <c r="P1075" s="29"/>
+    </row>
+    <row r="1076" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1076" s="35"/>
+      <c r="O1076" s="33"/>
+      <c r="P1076" s="29"/>
+    </row>
+    <row r="1077" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1077" s="35"/>
+      <c r="O1077" s="33"/>
+      <c r="P1077" s="29"/>
+    </row>
+    <row r="1078" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1078" s="35"/>
+      <c r="O1078" s="33"/>
+      <c r="P1078" s="29"/>
+    </row>
+    <row r="1079" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1079" s="35"/>
+      <c r="O1079" s="33"/>
+      <c r="P1079" s="29"/>
+    </row>
+    <row r="1080" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1080" s="35"/>
+      <c r="O1080" s="33"/>
+      <c r="P1080" s="29"/>
+    </row>
+    <row r="1081" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1081" s="35"/>
+      <c r="O1081" s="33"/>
+      <c r="P1081" s="29"/>
+    </row>
+    <row r="1082" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1082" s="35"/>
+      <c r="O1082" s="33"/>
+      <c r="P1082" s="29"/>
+    </row>
+    <row r="1083" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1083" s="35"/>
+      <c r="O1083" s="33"/>
+      <c r="P1083" s="29"/>
+    </row>
+    <row r="1084" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1084" s="35"/>
+      <c r="O1084" s="33"/>
+      <c r="P1084" s="29"/>
+    </row>
+    <row r="1085" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1085" s="35"/>
+      <c r="O1085" s="33"/>
+      <c r="P1085" s="29"/>
+    </row>
+    <row r="1086" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1086" s="35"/>
+      <c r="O1086" s="33"/>
+      <c r="P1086" s="29"/>
+    </row>
+    <row r="1087" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1087" s="35"/>
+      <c r="O1087" s="33"/>
+      <c r="P1087" s="29"/>
+    </row>
+    <row r="1088" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1088" s="35"/>
+      <c r="O1088" s="33"/>
+      <c r="P1088" s="29"/>
+    </row>
+    <row r="1089" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1089" s="35"/>
+      <c r="O1089" s="33"/>
+      <c r="P1089" s="29"/>
+    </row>
+    <row r="1090" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1090" s="35"/>
+      <c r="O1090" s="33"/>
+      <c r="P1090" s="29"/>
+    </row>
+    <row r="1091" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1091" s="35"/>
+      <c r="O1091" s="33"/>
+      <c r="P1091" s="29"/>
+    </row>
+    <row r="1092" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1092" s="35"/>
+      <c r="O1092" s="33"/>
+      <c r="P1092" s="29"/>
+    </row>
+    <row r="1093" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1093" s="35"/>
+      <c r="O1093" s="33"/>
+      <c r="P1093" s="29"/>
+    </row>
+    <row r="1094" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1094" s="35"/>
+      <c r="O1094" s="33"/>
+      <c r="P1094" s="29"/>
+    </row>
+    <row r="1095" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1095" s="35"/>
+      <c r="O1095" s="33"/>
+      <c r="P1095" s="29"/>
+    </row>
+    <row r="1096" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1096" s="35"/>
+      <c r="O1096" s="33"/>
+      <c r="P1096" s="29"/>
+    </row>
+    <row r="1097" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1097" s="35"/>
+      <c r="O1097" s="33"/>
+      <c r="P1097" s="29"/>
+    </row>
+    <row r="1098" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1098" s="35"/>
+      <c r="O1098" s="33"/>
+      <c r="P1098" s="29"/>
+    </row>
+    <row r="1099" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1099" s="35"/>
+      <c r="O1099" s="33"/>
+      <c r="P1099" s="29"/>
+    </row>
+    <row r="1100" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1100" s="35"/>
+      <c r="O1100" s="33"/>
+      <c r="P1100" s="29"/>
+    </row>
+    <row r="1101" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1101" s="35"/>
+      <c r="O1101" s="33"/>
+      <c r="P1101" s="29"/>
+    </row>
+    <row r="1102" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1102" s="35"/>
+      <c r="O1102" s="33"/>
+      <c r="P1102" s="29"/>
+    </row>
+    <row r="1103" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1103" s="35"/>
+      <c r="O1103" s="33"/>
+      <c r="P1103" s="29"/>
+    </row>
+    <row r="1104" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1104" s="35"/>
+      <c r="O1104" s="33"/>
+      <c r="P1104" s="29"/>
+    </row>
+    <row r="1105" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1105" s="35"/>
+      <c r="O1105" s="33"/>
+      <c r="P1105" s="29"/>
+    </row>
+    <row r="1106" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1106" s="35"/>
+      <c r="O1106" s="33"/>
+      <c r="P1106" s="29"/>
+    </row>
+    <row r="1107" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1107" s="35"/>
+      <c r="O1107" s="33"/>
+      <c r="P1107" s="29"/>
+    </row>
+    <row r="1108" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1108" s="35"/>
+      <c r="O1108" s="33"/>
+      <c r="P1108" s="29"/>
+    </row>
+    <row r="1109" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1109" s="35"/>
+      <c r="O1109" s="33"/>
+      <c r="P1109" s="29"/>
+    </row>
+    <row r="1110" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1110" s="35"/>
+      <c r="O1110" s="33"/>
+      <c r="P1110" s="29"/>
+    </row>
+    <row r="1111" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1111" s="35"/>
+      <c r="O1111" s="33"/>
+      <c r="P1111" s="29"/>
+    </row>
+    <row r="1112" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1112" s="35"/>
+      <c r="O1112" s="33"/>
+      <c r="P1112" s="29"/>
+    </row>
+    <row r="1113" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1113" s="35"/>
+      <c r="O1113" s="33"/>
+      <c r="P1113" s="29"/>
+    </row>
+    <row r="1114" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1114" s="35"/>
+      <c r="O1114" s="33"/>
+      <c r="P1114" s="29"/>
+    </row>
+    <row r="1115" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1115" s="35"/>
+      <c r="O1115" s="33"/>
+      <c r="P1115" s="29"/>
+    </row>
+    <row r="1116" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1116" s="35"/>
+      <c r="O1116" s="33"/>
+      <c r="P1116" s="29"/>
+    </row>
+    <row r="1117" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1117" s="35"/>
+      <c r="O1117" s="33"/>
+      <c r="P1117" s="29"/>
+    </row>
+    <row r="1118" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1118" s="35"/>
+      <c r="O1118" s="33"/>
+      <c r="P1118" s="29"/>
+    </row>
+    <row r="1119" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1119" s="35"/>
+      <c r="O1119" s="33"/>
+      <c r="P1119" s="29"/>
+    </row>
+    <row r="1120" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1120" s="35"/>
+      <c r="O1120" s="33"/>
+      <c r="P1120" s="29"/>
+    </row>
+    <row r="1121" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1121" s="35"/>
+      <c r="O1121" s="33"/>
+      <c r="P1121" s="29"/>
+    </row>
+    <row r="1122" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1122" s="35"/>
+      <c r="O1122" s="33"/>
+      <c r="P1122" s="29"/>
+    </row>
+    <row r="1123" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1123" s="35"/>
+      <c r="O1123" s="33"/>
+      <c r="P1123" s="29"/>
+    </row>
+    <row r="1124" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1124" s="35"/>
+      <c r="O1124" s="33"/>
+      <c r="P1124" s="29"/>
+    </row>
+    <row r="1125" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1125" s="35"/>
+      <c r="O1125" s="33"/>
+      <c r="P1125" s="29"/>
+    </row>
+    <row r="1126" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1126" s="35"/>
+      <c r="O1126" s="33"/>
+      <c r="P1126" s="29"/>
+    </row>
+    <row r="1127" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1127" s="35"/>
+      <c r="O1127" s="33"/>
+      <c r="P1127" s="29"/>
+    </row>
+    <row r="1128" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1128" s="35"/>
+      <c r="O1128" s="33"/>
+      <c r="P1128" s="29"/>
+    </row>
+    <row r="1129" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1129" s="35"/>
+      <c r="O1129" s="33"/>
+      <c r="P1129" s="29"/>
+    </row>
+    <row r="1130" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1130" s="35"/>
+      <c r="O1130" s="33"/>
+      <c r="P1130" s="29"/>
+    </row>
+    <row r="1131" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1131" s="35"/>
+      <c r="O1131" s="33"/>
+      <c r="P1131" s="29"/>
+    </row>
+    <row r="1132" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1132" s="35"/>
+      <c r="O1132" s="33"/>
+      <c r="P1132" s="29"/>
+    </row>
+    <row r="1133" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1133" s="35"/>
+      <c r="O1133" s="33"/>
+      <c r="P1133" s="29"/>
+    </row>
+    <row r="1134" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1134" s="35"/>
+      <c r="O1134" s="33"/>
+      <c r="P1134" s="29"/>
+    </row>
+    <row r="1135" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1135" s="35"/>
+      <c r="O1135" s="33"/>
+      <c r="P1135" s="29"/>
+    </row>
+    <row r="1136" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1136" s="35"/>
+      <c r="O1136" s="33"/>
+      <c r="P1136" s="29"/>
+    </row>
+    <row r="1137" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1137" s="35"/>
+      <c r="O1137" s="33"/>
+      <c r="P1137" s="29"/>
+    </row>
+    <row r="1138" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1138" s="35"/>
+      <c r="O1138" s="33"/>
+      <c r="P1138" s="29"/>
+    </row>
+    <row r="1139" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1139" s="35"/>
+      <c r="O1139" s="33"/>
+      <c r="P1139" s="29"/>
+    </row>
+    <row r="1140" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1140" s="35"/>
+      <c r="O1140" s="33"/>
+      <c r="P1140" s="29"/>
+    </row>
+    <row r="1141" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1141" s="35"/>
+      <c r="O1141" s="33"/>
+      <c r="P1141" s="29"/>
+    </row>
+    <row r="1142" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1142" s="35"/>
+      <c r="O1142" s="33"/>
+      <c r="P1142" s="29"/>
+    </row>
+    <row r="1143" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1143" s="35"/>
+      <c r="O1143" s="33"/>
+      <c r="P1143" s="29"/>
+    </row>
+    <row r="1144" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1144" s="35"/>
+      <c r="O1144" s="33"/>
+      <c r="P1144" s="29"/>
+    </row>
+    <row r="1145" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1145" s="35"/>
+      <c r="O1145" s="33"/>
+      <c r="P1145" s="29"/>
+    </row>
+    <row r="1146" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1146" s="35"/>
+      <c r="O1146" s="33"/>
+      <c r="P1146" s="29"/>
+    </row>
+    <row r="1147" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1147" s="35"/>
+      <c r="O1147" s="33"/>
+      <c r="P1147" s="29"/>
+    </row>
+    <row r="1148" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1148" s="35"/>
+      <c r="O1148" s="33"/>
+      <c r="P1148" s="29"/>
+    </row>
+    <row r="1149" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1149" s="35"/>
+      <c r="O1149" s="33"/>
+      <c r="P1149" s="29"/>
+    </row>
+    <row r="1150" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1150" s="35"/>
+      <c r="O1150" s="33"/>
+      <c r="P1150" s="29"/>
+    </row>
+    <row r="1151" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1151" s="35"/>
+      <c r="O1151" s="33"/>
+      <c r="P1151" s="29"/>
+    </row>
+    <row r="1152" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1152" s="35"/>
+      <c r="O1152" s="33"/>
+      <c r="P1152" s="29"/>
+    </row>
+    <row r="1153" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1153" s="35"/>
+      <c r="O1153" s="33"/>
+      <c r="P1153" s="29"/>
+    </row>
+    <row r="1154" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1154" s="35"/>
+      <c r="O1154" s="33"/>
+      <c r="P1154" s="29"/>
+    </row>
+    <row r="1155" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1155" s="35"/>
+      <c r="O1155" s="33"/>
+      <c r="P1155" s="29"/>
+    </row>
+    <row r="1156" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1156" s="35"/>
+      <c r="O1156" s="33"/>
+      <c r="P1156" s="29"/>
+    </row>
+    <row r="1157" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1157" s="35"/>
+      <c r="O1157" s="33"/>
+      <c r="P1157" s="29"/>
+    </row>
+    <row r="1158" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1158" s="35"/>
+      <c r="O1158" s="33"/>
+      <c r="P1158" s="29"/>
+    </row>
+    <row r="1159" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1159" s="35"/>
+      <c r="O1159" s="33"/>
+      <c r="P1159" s="29"/>
+    </row>
+    <row r="1160" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1160" s="35"/>
+      <c r="O1160" s="33"/>
+      <c r="P1160" s="29"/>
+    </row>
+    <row r="1161" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1161" s="35"/>
+      <c r="O1161" s="33"/>
+      <c r="P1161" s="29"/>
+    </row>
+    <row r="1162" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1162" s="35"/>
+      <c r="O1162" s="33"/>
+      <c r="P1162" s="29"/>
+    </row>
+    <row r="1163" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1163" s="35"/>
+      <c r="O1163" s="33"/>
+      <c r="P1163" s="29"/>
+    </row>
+    <row r="1164" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1164" s="35"/>
+      <c r="O1164" s="33"/>
+      <c r="P1164" s="29"/>
+    </row>
+    <row r="1165" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1165" s="35"/>
+      <c r="O1165" s="33"/>
+      <c r="P1165" s="29"/>
+    </row>
+    <row r="1166" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1166" s="35"/>
+      <c r="O1166" s="33"/>
+      <c r="P1166" s="29"/>
+    </row>
+    <row r="1167" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1167" s="35"/>
+      <c r="O1167" s="33"/>
+      <c r="P1167" s="29"/>
+    </row>
+    <row r="1168" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1168" s="35"/>
+      <c r="O1168" s="33"/>
+      <c r="P1168" s="29"/>
+    </row>
+    <row r="1169" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1169" s="35"/>
+      <c r="O1169" s="33"/>
+      <c r="P1169" s="29"/>
+    </row>
+    <row r="1170" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1170" s="35"/>
+      <c r="O1170" s="33"/>
+      <c r="P1170" s="29"/>
+    </row>
+    <row r="1171" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1171" s="35"/>
+      <c r="O1171" s="33"/>
+      <c r="P1171" s="29"/>
+    </row>
+    <row r="1172" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1172" s="35"/>
+      <c r="O1172" s="33"/>
+      <c r="P1172" s="29"/>
+    </row>
+    <row r="1173" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1173" s="35"/>
+      <c r="O1173" s="33"/>
+      <c r="P1173" s="29"/>
+    </row>
+    <row r="1174" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1174" s="35"/>
+      <c r="O1174" s="33"/>
+      <c r="P1174" s="29"/>
+    </row>
+    <row r="1175" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1175" s="35"/>
+      <c r="O1175" s="33"/>
+      <c r="P1175" s="29"/>
+    </row>
+    <row r="1176" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1176" s="35"/>
+      <c r="O1176" s="33"/>
+      <c r="P1176" s="29"/>
+    </row>
+    <row r="1177" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1177" s="35"/>
+      <c r="O1177" s="33"/>
+      <c r="P1177" s="29"/>
+    </row>
+    <row r="1178" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1178" s="35"/>
+      <c r="O1178" s="33"/>
+      <c r="P1178" s="29"/>
+    </row>
+    <row r="1179" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1179" s="35"/>
+      <c r="O1179" s="33"/>
+      <c r="P1179" s="29"/>
+    </row>
+    <row r="1180" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1180" s="35"/>
+      <c r="O1180" s="33"/>
+      <c r="P1180" s="29"/>
+    </row>
+    <row r="1181" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1181" s="35"/>
+      <c r="O1181" s="33"/>
+      <c r="P1181" s="29"/>
+    </row>
+    <row r="1182" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1182" s="35"/>
+      <c r="O1182" s="33"/>
+      <c r="P1182" s="29"/>
+    </row>
+    <row r="1183" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1183" s="35"/>
+      <c r="O1183" s="33"/>
+      <c r="P1183" s="29"/>
+    </row>
+    <row r="1184" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1184" s="35"/>
+      <c r="O1184" s="33"/>
+      <c r="P1184" s="29"/>
+    </row>
+    <row r="1185" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B1185" s="35"/>
+      <c r="O1185" s="33"/>
+      <c r="P1185" s="29"/>
+    </row>
+    <row r="1186" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B1186" s="35"/>
+      <c r="O1186" s="33"/>
+      <c r="P1186" s="29"/>
+    </row>
+    <row r="1187" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B1187" s="35"/>
+      <c r="O1187" s="33"/>
+      <c r="P1187" s="29"/>
+    </row>
+    <row r="1188" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B1188" s="35"/>
+      <c r="O1188" s="33"/>
+      <c r="P1188" s="29"/>
+    </row>
+    <row r="1189" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B1189" s="35"/>
+      <c r="O1189" s="33"/>
+      <c r="P1189" s="29"/>
+    </row>
+    <row r="1190" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B1190" s="35"/>
+      <c r="D1190" s="49"/>
+      <c r="E1190" s="49"/>
+      <c r="F1190" s="49"/>
+      <c r="G1190" s="49"/>
+      <c r="H1190" s="49"/>
+      <c r="I1190" s="49"/>
+      <c r="J1190" s="49"/>
+      <c r="K1190" s="49"/>
+      <c r="L1190" s="49"/>
+      <c r="M1190" s="49"/>
+      <c r="N1190" s="51"/>
+      <c r="O1190" s="33"/>
+      <c r="P1190" s="29"/>
+    </row>
+    <row r="1191" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B1191" s="35"/>
+      <c r="D1191" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E532" s="52"/>
-      <c r="F532" s="39" t="s">
+      <c r="E1191" s="48"/>
+      <c r="F1191" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="O532" s="33"/>
-      <c r="P532" s="29"/>
-    </row>
-    <row r="533" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B533" s="35"/>
-      <c r="C533" s="37"/>
-      <c r="D533" s="36"/>
-      <c r="E533" s="36"/>
-      <c r="F533" s="36"/>
-      <c r="G533" s="36"/>
-      <c r="H533" s="36"/>
-      <c r="I533" s="36"/>
-      <c r="J533" s="36"/>
-      <c r="K533" s="36"/>
-      <c r="L533" s="36"/>
-      <c r="M533" s="36"/>
-      <c r="N533" s="40"/>
-      <c r="O533" s="33"/>
-      <c r="P533" s="29"/>
-      <c r="S533" s="41"/>
-    </row>
-    <row r="534" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B534" s="37"/>
-      <c r="C534" s="36"/>
-      <c r="D534" s="36"/>
-      <c r="E534" s="36"/>
-      <c r="F534" s="36"/>
-      <c r="G534" s="36"/>
-      <c r="H534" s="36"/>
-      <c r="I534" s="36"/>
-      <c r="J534" s="36"/>
-      <c r="K534" s="36"/>
-      <c r="L534" s="36"/>
-      <c r="M534" s="36"/>
-      <c r="N534" s="36"/>
-      <c r="O534" s="36"/>
-      <c r="P534" s="40"/>
-    </row>
-    <row r="561" spans="4:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D561" s="43"/>
-      <c r="E561" s="43"/>
-      <c r="F561" s="43"/>
-      <c r="G561" s="43"/>
-      <c r="H561" s="43"/>
-      <c r="I561" s="43"/>
-      <c r="J561" s="43"/>
-      <c r="K561" s="43"/>
-      <c r="L561" s="43"/>
-      <c r="M561" s="43"/>
-      <c r="N561" s="43"/>
-    </row>
-    <row r="579" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D579" s="46"/>
-      <c r="E579" s="46"/>
-      <c r="F579" s="46"/>
-      <c r="G579" s="46"/>
-      <c r="H579" s="46"/>
-      <c r="I579" s="46"/>
-      <c r="J579" s="46"/>
-      <c r="K579" s="46"/>
-      <c r="L579" s="46"/>
-      <c r="M579" s="46"/>
-      <c r="N579" s="46"/>
-    </row>
-    <row r="598" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D598" s="43"/>
-      <c r="E598" s="43"/>
-      <c r="F598" s="43"/>
-      <c r="G598" s="43"/>
-      <c r="H598" s="43"/>
-      <c r="I598" s="43"/>
-      <c r="J598" s="43"/>
-      <c r="K598" s="43"/>
-      <c r="L598" s="43"/>
-      <c r="M598" s="43"/>
-      <c r="N598" s="43"/>
-    </row>
-    <row r="600" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D600" s="44"/>
-      <c r="E600" s="44"/>
-      <c r="F600" s="44"/>
-    </row>
-    <row r="619" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D619" s="43"/>
-      <c r="E619" s="43"/>
-      <c r="F619" s="43"/>
-      <c r="G619" s="43"/>
-      <c r="H619" s="43"/>
-      <c r="I619" s="43"/>
-      <c r="J619" s="43"/>
-      <c r="K619" s="43"/>
-      <c r="L619" s="43"/>
-      <c r="M619" s="43"/>
-      <c r="N619" s="43"/>
-    </row>
-    <row r="654" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D654" s="43"/>
-      <c r="E654" s="43"/>
-      <c r="F654" s="43"/>
-      <c r="G654" s="43"/>
-      <c r="H654" s="43"/>
-      <c r="I654" s="43"/>
-      <c r="J654" s="43"/>
-      <c r="K654" s="43"/>
-      <c r="L654" s="43"/>
-      <c r="M654" s="43"/>
-      <c r="N654" s="43"/>
-    </row>
-    <row r="672" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D672" s="43"/>
-      <c r="E672" s="43"/>
-      <c r="F672" s="43"/>
-      <c r="G672" s="43"/>
-      <c r="H672" s="43"/>
-      <c r="I672" s="43"/>
-      <c r="J672" s="43"/>
-      <c r="K672" s="43"/>
-      <c r="L672" s="43"/>
-      <c r="M672" s="43"/>
-      <c r="N672" s="43"/>
-    </row>
-    <row r="691" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D691" s="44"/>
-      <c r="E691" s="44"/>
-      <c r="F691" s="44"/>
-      <c r="G691" s="44"/>
-      <c r="H691" s="44"/>
-      <c r="I691" s="44"/>
-      <c r="J691" s="44"/>
-      <c r="K691" s="44"/>
-      <c r="L691" s="44"/>
-      <c r="M691" s="44"/>
-      <c r="N691" s="44"/>
-    </row>
-    <row r="710" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D710" s="43"/>
-      <c r="E710" s="43"/>
-      <c r="F710" s="43"/>
-      <c r="G710" s="43"/>
-      <c r="H710" s="43"/>
-      <c r="I710" s="43"/>
-      <c r="J710" s="43"/>
-      <c r="K710" s="43"/>
-      <c r="L710" s="43"/>
-      <c r="M710" s="43"/>
-      <c r="N710" s="43"/>
-    </row>
-    <row r="746" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D746" s="43"/>
-      <c r="E746" s="43"/>
-      <c r="F746" s="43"/>
-      <c r="G746" s="43"/>
-      <c r="H746" s="43"/>
-      <c r="I746" s="43"/>
-      <c r="J746" s="43"/>
-      <c r="K746" s="43"/>
-      <c r="L746" s="43"/>
-      <c r="M746" s="43"/>
-      <c r="N746" s="43"/>
-    </row>
-    <row r="748" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D748" s="44"/>
-      <c r="E748" s="44"/>
-      <c r="F748" s="44"/>
-      <c r="G748" s="44"/>
-      <c r="H748" s="44"/>
-      <c r="I748" s="44"/>
-      <c r="J748" s="44"/>
-      <c r="K748" s="44"/>
-      <c r="L748" s="44"/>
-      <c r="M748" s="44"/>
-      <c r="N748" s="44"/>
-    </row>
-    <row r="784" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D784" s="43"/>
-      <c r="E784" s="43"/>
-      <c r="F784" s="43"/>
-      <c r="G784" s="43"/>
-      <c r="H784" s="43"/>
-      <c r="I784" s="43"/>
-      <c r="J784" s="43"/>
-      <c r="K784" s="43"/>
-      <c r="L784" s="43"/>
-      <c r="M784" s="43"/>
-      <c r="N784" s="43"/>
-    </row>
-    <row r="803" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D803" s="43"/>
-      <c r="E803" s="43"/>
-      <c r="F803" s="43"/>
-      <c r="G803" s="43"/>
-      <c r="H803" s="43"/>
-      <c r="I803" s="43"/>
-      <c r="J803" s="43"/>
-      <c r="K803" s="43"/>
-      <c r="L803" s="43"/>
-      <c r="M803" s="43"/>
-      <c r="N803" s="43"/>
-    </row>
-    <row r="821" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D821" s="43"/>
-      <c r="E821" s="43"/>
-      <c r="F821" s="43"/>
-      <c r="G821" s="43"/>
-      <c r="H821" s="43"/>
-      <c r="I821" s="43"/>
-      <c r="J821" s="43"/>
-      <c r="K821" s="43"/>
-      <c r="L821" s="43"/>
-      <c r="M821" s="43"/>
-      <c r="N821" s="43"/>
-    </row>
-    <row r="891" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D891" s="43"/>
-      <c r="E891" s="43"/>
-      <c r="F891" s="43"/>
-      <c r="G891" s="43"/>
-      <c r="H891" s="43"/>
-      <c r="I891" s="43"/>
-      <c r="J891" s="43"/>
-      <c r="K891" s="43"/>
-      <c r="L891" s="43"/>
-      <c r="M891" s="43"/>
-      <c r="N891" s="43"/>
-    </row>
-    <row r="910" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D910" s="44"/>
-      <c r="E910" s="44"/>
-      <c r="F910" s="44"/>
-      <c r="G910" s="44"/>
-      <c r="H910" s="44"/>
-      <c r="I910" s="44"/>
-      <c r="J910" s="44"/>
-      <c r="K910" s="44"/>
-      <c r="L910" s="44"/>
-      <c r="M910" s="44"/>
-      <c r="N910" s="44"/>
-    </row>
-    <row r="945" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D945" s="45"/>
-      <c r="E945" s="45"/>
-      <c r="F945" s="45"/>
-      <c r="G945" s="45"/>
-      <c r="H945" s="45"/>
-      <c r="I945" s="45"/>
-      <c r="J945" s="45"/>
-      <c r="K945" s="45"/>
-      <c r="L945" s="45"/>
-      <c r="M945" s="45"/>
-      <c r="N945" s="45"/>
-    </row>
-    <row r="947" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D947" s="44"/>
-      <c r="E947" s="44"/>
-      <c r="F947" s="44"/>
-      <c r="G947" s="44"/>
-      <c r="H947" s="44"/>
-      <c r="I947" s="44"/>
-      <c r="J947" s="44"/>
-      <c r="K947" s="44"/>
-      <c r="L947" s="44"/>
-      <c r="M947" s="44"/>
-      <c r="N947" s="44"/>
-    </row>
-    <row r="948" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D948" s="45"/>
-      <c r="E948" s="45"/>
-      <c r="F948" s="45"/>
-      <c r="G948" s="45"/>
-      <c r="H948" s="45"/>
-      <c r="I948" s="45"/>
-      <c r="J948" s="45"/>
-      <c r="K948" s="45"/>
-      <c r="L948" s="45"/>
-      <c r="M948" s="45"/>
-      <c r="N948" s="45"/>
-    </row>
-    <row r="966" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D966" s="43"/>
-      <c r="E966" s="43"/>
-      <c r="F966" s="43"/>
-      <c r="G966" s="43"/>
-      <c r="H966" s="43"/>
-      <c r="I966" s="43"/>
-      <c r="J966" s="43"/>
-      <c r="K966" s="43"/>
-      <c r="L966" s="43"/>
-      <c r="M966" s="43"/>
-      <c r="N966" s="43"/>
-    </row>
-    <row r="985" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D985" s="43"/>
-      <c r="E985" s="43"/>
-      <c r="F985" s="43"/>
-      <c r="G985" s="43"/>
-      <c r="H985" s="43"/>
-      <c r="I985" s="43"/>
-      <c r="J985" s="43"/>
-      <c r="K985" s="43"/>
-      <c r="L985" s="43"/>
-      <c r="M985" s="43"/>
-      <c r="N985" s="43"/>
-    </row>
-    <row r="1074" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D1074" s="43"/>
-      <c r="E1074" s="43"/>
-      <c r="F1074" s="43"/>
-      <c r="G1074" s="43"/>
-      <c r="H1074" s="43"/>
-      <c r="I1074" s="43"/>
-      <c r="J1074" s="43"/>
-      <c r="K1074" s="43"/>
-      <c r="L1074" s="43"/>
-      <c r="M1074" s="43"/>
-      <c r="N1074" s="43"/>
+      <c r="O1191" s="33"/>
+      <c r="P1191" s="29"/>
+    </row>
+    <row r="1192" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1192" s="35"/>
+      <c r="C1192" s="37"/>
+      <c r="D1192" s="36"/>
+      <c r="E1192" s="36"/>
+      <c r="F1192" s="36"/>
+      <c r="G1192" s="36"/>
+      <c r="H1192" s="36"/>
+      <c r="I1192" s="36"/>
+      <c r="J1192" s="36"/>
+      <c r="K1192" s="36"/>
+      <c r="L1192" s="36"/>
+      <c r="M1192" s="36"/>
+      <c r="N1192" s="40"/>
+      <c r="O1192" s="33"/>
+      <c r="P1192" s="29"/>
+      <c r="S1192" s="41"/>
+    </row>
+    <row r="1193" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1193" s="37"/>
+      <c r="C1193" s="36"/>
+      <c r="D1193" s="36"/>
+      <c r="E1193" s="36"/>
+      <c r="F1193" s="36"/>
+      <c r="G1193" s="36"/>
+      <c r="H1193" s="36"/>
+      <c r="I1193" s="36"/>
+      <c r="J1193" s="36"/>
+      <c r="K1193" s="36"/>
+      <c r="L1193" s="36"/>
+      <c r="M1193" s="36"/>
+      <c r="N1193" s="36"/>
+      <c r="O1193" s="36"/>
+      <c r="P1193" s="40"/>
+    </row>
+    <row r="1220" spans="4:14" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1220" s="43"/>
+      <c r="E1220" s="43"/>
+      <c r="F1220" s="43"/>
+      <c r="G1220" s="43"/>
+      <c r="H1220" s="43"/>
+      <c r="I1220" s="43"/>
+      <c r="J1220" s="43"/>
+      <c r="K1220" s="43"/>
+      <c r="L1220" s="43"/>
+      <c r="M1220" s="43"/>
+      <c r="N1220" s="43"/>
+    </row>
+    <row r="1238" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D1238" s="49"/>
+      <c r="E1238" s="49"/>
+      <c r="F1238" s="49"/>
+      <c r="G1238" s="49"/>
+      <c r="H1238" s="49"/>
+      <c r="I1238" s="49"/>
+      <c r="J1238" s="49"/>
+      <c r="K1238" s="49"/>
+      <c r="L1238" s="49"/>
+      <c r="M1238" s="49"/>
+      <c r="N1238" s="49"/>
+    </row>
+    <row r="1257" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D1257" s="43"/>
+      <c r="E1257" s="43"/>
+      <c r="F1257" s="43"/>
+      <c r="G1257" s="43"/>
+      <c r="H1257" s="43"/>
+      <c r="I1257" s="43"/>
+      <c r="J1257" s="43"/>
+      <c r="K1257" s="43"/>
+      <c r="L1257" s="43"/>
+      <c r="M1257" s="43"/>
+      <c r="N1257" s="43"/>
+    </row>
+    <row r="1259" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D1259" s="47"/>
+      <c r="E1259" s="47"/>
+      <c r="F1259" s="47"/>
+    </row>
+    <row r="1278" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D1278" s="43"/>
+      <c r="E1278" s="43"/>
+      <c r="F1278" s="43"/>
+      <c r="G1278" s="43"/>
+      <c r="H1278" s="43"/>
+      <c r="I1278" s="43"/>
+      <c r="J1278" s="43"/>
+      <c r="K1278" s="43"/>
+      <c r="L1278" s="43"/>
+      <c r="M1278" s="43"/>
+      <c r="N1278" s="43"/>
+    </row>
+    <row r="1313" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D1313" s="43"/>
+      <c r="E1313" s="43"/>
+      <c r="F1313" s="43"/>
+      <c r="G1313" s="43"/>
+      <c r="H1313" s="43"/>
+      <c r="I1313" s="43"/>
+      <c r="J1313" s="43"/>
+      <c r="K1313" s="43"/>
+      <c r="L1313" s="43"/>
+      <c r="M1313" s="43"/>
+      <c r="N1313" s="43"/>
+    </row>
+    <row r="1331" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D1331" s="43"/>
+      <c r="E1331" s="43"/>
+      <c r="F1331" s="43"/>
+      <c r="G1331" s="43"/>
+      <c r="H1331" s="43"/>
+      <c r="I1331" s="43"/>
+      <c r="J1331" s="43"/>
+      <c r="K1331" s="43"/>
+      <c r="L1331" s="43"/>
+      <c r="M1331" s="43"/>
+      <c r="N1331" s="43"/>
+    </row>
+    <row r="1350" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D1350" s="47"/>
+      <c r="E1350" s="47"/>
+      <c r="F1350" s="47"/>
+      <c r="G1350" s="47"/>
+      <c r="H1350" s="47"/>
+      <c r="I1350" s="47"/>
+      <c r="J1350" s="47"/>
+      <c r="K1350" s="47"/>
+      <c r="L1350" s="47"/>
+      <c r="M1350" s="47"/>
+      <c r="N1350" s="47"/>
+    </row>
+    <row r="1369" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D1369" s="43"/>
+      <c r="E1369" s="43"/>
+      <c r="F1369" s="43"/>
+      <c r="G1369" s="43"/>
+      <c r="H1369" s="43"/>
+      <c r="I1369" s="43"/>
+      <c r="J1369" s="43"/>
+      <c r="K1369" s="43"/>
+      <c r="L1369" s="43"/>
+      <c r="M1369" s="43"/>
+      <c r="N1369" s="43"/>
+    </row>
+    <row r="1405" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D1405" s="43"/>
+      <c r="E1405" s="43"/>
+      <c r="F1405" s="43"/>
+      <c r="G1405" s="43"/>
+      <c r="H1405" s="43"/>
+      <c r="I1405" s="43"/>
+      <c r="J1405" s="43"/>
+      <c r="K1405" s="43"/>
+      <c r="L1405" s="43"/>
+      <c r="M1405" s="43"/>
+      <c r="N1405" s="43"/>
+    </row>
+    <row r="1407" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D1407" s="47"/>
+      <c r="E1407" s="47"/>
+      <c r="F1407" s="47"/>
+      <c r="G1407" s="47"/>
+      <c r="H1407" s="47"/>
+      <c r="I1407" s="47"/>
+      <c r="J1407" s="47"/>
+      <c r="K1407" s="47"/>
+      <c r="L1407" s="47"/>
+      <c r="M1407" s="47"/>
+      <c r="N1407" s="47"/>
+    </row>
+    <row r="1443" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D1443" s="43"/>
+      <c r="E1443" s="43"/>
+      <c r="F1443" s="43"/>
+      <c r="G1443" s="43"/>
+      <c r="H1443" s="43"/>
+      <c r="I1443" s="43"/>
+      <c r="J1443" s="43"/>
+      <c r="K1443" s="43"/>
+      <c r="L1443" s="43"/>
+      <c r="M1443" s="43"/>
+      <c r="N1443" s="43"/>
+    </row>
+    <row r="1462" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D1462" s="43"/>
+      <c r="E1462" s="43"/>
+      <c r="F1462" s="43"/>
+      <c r="G1462" s="43"/>
+      <c r="H1462" s="43"/>
+      <c r="I1462" s="43"/>
+      <c r="J1462" s="43"/>
+      <c r="K1462" s="43"/>
+      <c r="L1462" s="43"/>
+      <c r="M1462" s="43"/>
+      <c r="N1462" s="43"/>
+    </row>
+    <row r="1480" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D1480" s="43"/>
+      <c r="E1480" s="43"/>
+      <c r="F1480" s="43"/>
+      <c r="G1480" s="43"/>
+      <c r="H1480" s="43"/>
+      <c r="I1480" s="43"/>
+      <c r="J1480" s="43"/>
+      <c r="K1480" s="43"/>
+      <c r="L1480" s="43"/>
+      <c r="M1480" s="43"/>
+      <c r="N1480" s="43"/>
+    </row>
+    <row r="1550" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D1550" s="43"/>
+      <c r="E1550" s="43"/>
+      <c r="F1550" s="43"/>
+      <c r="G1550" s="43"/>
+      <c r="H1550" s="43"/>
+      <c r="I1550" s="43"/>
+      <c r="J1550" s="43"/>
+      <c r="K1550" s="43"/>
+      <c r="L1550" s="43"/>
+      <c r="M1550" s="43"/>
+      <c r="N1550" s="43"/>
+    </row>
+    <row r="1569" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D1569" s="47"/>
+      <c r="E1569" s="47"/>
+      <c r="F1569" s="47"/>
+      <c r="G1569" s="47"/>
+      <c r="H1569" s="47"/>
+      <c r="I1569" s="47"/>
+      <c r="J1569" s="47"/>
+      <c r="K1569" s="47"/>
+      <c r="L1569" s="47"/>
+      <c r="M1569" s="47"/>
+      <c r="N1569" s="47"/>
+    </row>
+    <row r="1604" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D1604" s="50"/>
+      <c r="E1604" s="50"/>
+      <c r="F1604" s="50"/>
+      <c r="G1604" s="50"/>
+      <c r="H1604" s="50"/>
+      <c r="I1604" s="50"/>
+      <c r="J1604" s="50"/>
+      <c r="K1604" s="50"/>
+      <c r="L1604" s="50"/>
+      <c r="M1604" s="50"/>
+      <c r="N1604" s="50"/>
+    </row>
+    <row r="1606" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D1606" s="47"/>
+      <c r="E1606" s="47"/>
+      <c r="F1606" s="47"/>
+      <c r="G1606" s="47"/>
+      <c r="H1606" s="47"/>
+      <c r="I1606" s="47"/>
+      <c r="J1606" s="47"/>
+      <c r="K1606" s="47"/>
+      <c r="L1606" s="47"/>
+      <c r="M1606" s="47"/>
+      <c r="N1606" s="47"/>
+    </row>
+    <row r="1607" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D1607" s="50"/>
+      <c r="E1607" s="50"/>
+      <c r="F1607" s="50"/>
+      <c r="G1607" s="50"/>
+      <c r="H1607" s="50"/>
+      <c r="I1607" s="50"/>
+      <c r="J1607" s="50"/>
+      <c r="K1607" s="50"/>
+      <c r="L1607" s="50"/>
+      <c r="M1607" s="50"/>
+      <c r="N1607" s="50"/>
+    </row>
+    <row r="1625" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D1625" s="43"/>
+      <c r="E1625" s="43"/>
+      <c r="F1625" s="43"/>
+      <c r="G1625" s="43"/>
+      <c r="H1625" s="43"/>
+      <c r="I1625" s="43"/>
+      <c r="J1625" s="43"/>
+      <c r="K1625" s="43"/>
+      <c r="L1625" s="43"/>
+      <c r="M1625" s="43"/>
+      <c r="N1625" s="43"/>
+    </row>
+    <row r="1644" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D1644" s="43"/>
+      <c r="E1644" s="43"/>
+      <c r="F1644" s="43"/>
+      <c r="G1644" s="43"/>
+      <c r="H1644" s="43"/>
+      <c r="I1644" s="43"/>
+      <c r="J1644" s="43"/>
+      <c r="K1644" s="43"/>
+      <c r="L1644" s="43"/>
+      <c r="M1644" s="43"/>
+      <c r="N1644" s="43"/>
+    </row>
+    <row r="1733" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D1733" s="43"/>
+      <c r="E1733" s="43"/>
+      <c r="F1733" s="43"/>
+      <c r="G1733" s="43"/>
+      <c r="H1733" s="43"/>
+      <c r="I1733" s="43"/>
+      <c r="J1733" s="43"/>
+      <c r="K1733" s="43"/>
+      <c r="L1733" s="43"/>
+      <c r="M1733" s="43"/>
+      <c r="N1733" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D561:N561"/>
+    <mergeCell ref="D1443:N1443"/>
+    <mergeCell ref="D1462:N1462"/>
+    <mergeCell ref="D1480:N1480"/>
+    <mergeCell ref="D1550:N1550"/>
+    <mergeCell ref="D1569:N1569"/>
+    <mergeCell ref="D1733:N1733"/>
+    <mergeCell ref="D1604:N1604"/>
+    <mergeCell ref="D1606:N1606"/>
+    <mergeCell ref="D1607:N1607"/>
+    <mergeCell ref="D1625:N1625"/>
+    <mergeCell ref="D1644:N1644"/>
+    <mergeCell ref="D1350:N1350"/>
+    <mergeCell ref="D1369:N1369"/>
+    <mergeCell ref="D1405:N1405"/>
+    <mergeCell ref="D1407:N1407"/>
+    <mergeCell ref="D1238:N1238"/>
+    <mergeCell ref="D1257:N1257"/>
+    <mergeCell ref="D1259:F1259"/>
+    <mergeCell ref="D1278:N1278"/>
+    <mergeCell ref="D1313:N1313"/>
+    <mergeCell ref="D1331:N1331"/>
+    <mergeCell ref="D1220:N1220"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="D10:M12"/>
     <mergeCell ref="D26:N26"/>
-    <mergeCell ref="D531:N531"/>
-    <mergeCell ref="D532:E532"/>
-    <mergeCell ref="D691:N691"/>
-    <mergeCell ref="D710:N710"/>
-    <mergeCell ref="D746:N746"/>
-    <mergeCell ref="D748:N748"/>
-    <mergeCell ref="D579:N579"/>
-    <mergeCell ref="D598:N598"/>
-    <mergeCell ref="D600:F600"/>
-    <mergeCell ref="D619:N619"/>
-    <mergeCell ref="D654:N654"/>
-    <mergeCell ref="D672:N672"/>
-    <mergeCell ref="D1074:N1074"/>
-    <mergeCell ref="D945:N945"/>
-    <mergeCell ref="D947:N947"/>
-    <mergeCell ref="D948:N948"/>
-    <mergeCell ref="D966:N966"/>
-    <mergeCell ref="D985:N985"/>
-    <mergeCell ref="D784:N784"/>
-    <mergeCell ref="D803:N803"/>
-    <mergeCell ref="D821:N821"/>
-    <mergeCell ref="D891:N891"/>
-    <mergeCell ref="D910:N910"/>
+    <mergeCell ref="D1191:E1191"/>
+    <mergeCell ref="D1190:N1190"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
